--- a/ACMAP_nature_microbe.xlsx
+++ b/ACMAP_nature_microbe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5492f7272af2bd81/Documents/GitHub/msvnt_Omicron/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Data\Es_genome_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AFF2301B-D361-4643-B37B-08ED6195D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D76326-98A9-430C-8593-AF384E509B2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC557714-19CB-406B-9D7D-3820753FD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3594" yWindow="3336" windowWidth="17280" windowHeight="8904" activeTab="1" xr2:uid="{1859BE29-84BD-4C63-A9E8-3B1881E07EBE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{1859BE29-84BD-4C63-A9E8-3B1881E07EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="435">
   <si>
     <t>Serum panel</t>
   </si>
@@ -1341,39 +1341,6 @@
   </si>
   <si>
     <t>sample394</t>
-  </si>
-  <si>
-    <t>sample395</t>
-  </si>
-  <si>
-    <t>sample396</t>
-  </si>
-  <si>
-    <t>sample397</t>
-  </si>
-  <si>
-    <t>sample398</t>
-  </si>
-  <si>
-    <t>sample399</t>
-  </si>
-  <si>
-    <t>sample400</t>
-  </si>
-  <si>
-    <t>sample401</t>
-  </si>
-  <si>
-    <t>sample402</t>
-  </si>
-  <si>
-    <t>sample403</t>
-  </si>
-  <si>
-    <t>sample404</t>
-  </si>
-  <si>
-    <t>sample405</t>
   </si>
 </sst>
 </file>
@@ -1414,30 +1381,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1452,23 +1401,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,21 +1740,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33BDE2C-088F-44EF-AA79-4447B67EBC43}">
   <dimension ref="A1:V395"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView topLeftCell="A383" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1864,7 +1819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +1887,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +1955,7 @@
         <v>6.7750000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2068,7 +2023,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2091,7 @@
         <v>2.7429999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2204,7 +2159,7 @@
         <v>3.8439999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2227,7 @@
         <v>6.0579999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2340,7 +2295,7 @@
         <v>7.8250000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +2363,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2431,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2544,7 +2499,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2612,7 +2567,7 @@
         <v>1.9279999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +2635,7 @@
         <v>5.8209999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2748,7 +2703,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2771,7 @@
         <v>5.0069999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2884,7 +2839,7 @@
         <v>4.9989999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2952,7 +2907,7 @@
         <v>4.5069999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3020,7 +2975,7 @@
         <v>4.1980000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -3088,7 +3043,7 @@
         <v>7.1849999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3156,7 +3111,7 @@
         <v>2.778</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3224,8 +3179,8 @@
         <v>9.3539999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3252,7 +3207,7 @@
       <c r="I22" s="3">
         <v>7.375</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>12.16</v>
       </c>
       <c r="K22" s="3">
@@ -3292,8 +3247,8 @@
         <v>61.64</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3320,7 +3275,7 @@
       <c r="I23" s="3">
         <v>18.77</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>22.39</v>
       </c>
       <c r="K23" s="3">
@@ -3360,8 +3315,8 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A24" t="s">
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3388,7 +3343,7 @@
       <c r="I24" s="3">
         <v>14.81</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>21.18</v>
       </c>
       <c r="K24" s="3">
@@ -3428,8 +3383,8 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3456,7 +3411,7 @@
       <c r="I25" s="3">
         <v>9.7769999999999992</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>16.2</v>
       </c>
       <c r="K25" s="3">
@@ -3496,8 +3451,8 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3524,7 +3479,7 @@
       <c r="I26" s="3">
         <v>3.4430000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>7.16</v>
       </c>
       <c r="K26" s="3">
@@ -3564,8 +3519,8 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3592,7 +3547,7 @@
       <c r="I27" s="3">
         <v>4.8929999999999998</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>9.5280000000000005</v>
       </c>
       <c r="K27" s="3">
@@ -3632,8 +3587,8 @@
         <v>28.58</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A28" t="s">
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3660,7 +3615,7 @@
       <c r="I28" s="3">
         <v>8.91</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>15.35</v>
       </c>
       <c r="K28" s="3">
@@ -3700,8 +3655,8 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A29" t="s">
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3728,7 +3683,7 @@
       <c r="I29" s="3">
         <v>13.47</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>19.559999999999999</v>
       </c>
       <c r="K29" s="3">
@@ -3768,8 +3723,8 @@
         <v>46.34</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3796,7 +3751,7 @@
       <c r="I30" s="3">
         <v>4.1520000000000001</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>5.9020000000000001</v>
       </c>
       <c r="K30" s="3">
@@ -3836,8 +3791,8 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3864,7 +3819,7 @@
       <c r="I31" s="3">
         <v>18.88</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>20.68</v>
       </c>
       <c r="K31" s="3">
@@ -3904,8 +3859,8 @@
         <v>94.56</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3932,7 +3887,7 @@
       <c r="I32" s="3">
         <v>17.91</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>16.39</v>
       </c>
       <c r="K32" s="3">
@@ -3972,8 +3927,8 @@
         <v>48.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4000,7 +3955,7 @@
       <c r="I33" s="3">
         <v>21.17</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>18.43</v>
       </c>
       <c r="K33" s="3">
@@ -4040,8 +3995,8 @@
         <v>60.44</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4068,7 +4023,7 @@
       <c r="I34" s="3">
         <v>8.9190000000000005</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>10.48</v>
       </c>
       <c r="K34" s="3">
@@ -4108,8 +4063,8 @@
         <v>50.04</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4136,7 +4091,7 @@
       <c r="I35" s="3">
         <v>8.4009999999999998</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>7.9539999999999997</v>
       </c>
       <c r="K35" s="3">
@@ -4176,7 +4131,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -4244,7 +4199,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -4312,7 +4267,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -4380,7 +4335,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -4448,7 +4403,7 @@
         <v>9.1340000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
@@ -4516,7 +4471,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -4584,7 +4539,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -4652,7 +4607,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
@@ -4720,7 +4675,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -4788,7 +4743,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -4856,7 +4811,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -4924,7 +4879,7 @@
         <v>7.8630000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
@@ -4992,7 +4947,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
@@ -5060,7 +5015,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -5128,7 +5083,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>24</v>
       </c>
@@ -5196,7 +5151,7 @@
         <v>5.1159999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
@@ -5264,7 +5219,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
@@ -5332,7 +5287,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>24</v>
       </c>
@@ -5400,7 +5355,7 @@
         <v>13.49</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
@@ -5468,7 +5423,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -5536,7 +5491,7 @@
         <v>3.7650000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5559,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -5672,7 +5627,7 @@
         <v>6.8289999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -5740,7 +5695,7 @@
         <v>7.0739999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -5808,7 +5763,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -5876,7 +5831,7 @@
         <v>28.99</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -5944,7 +5899,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -6012,7 +5967,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -6080,7 +6035,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
@@ -6148,7 +6103,7 @@
         <v>42.63</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>26</v>
       </c>
@@ -6216,7 +6171,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>26</v>
       </c>
@@ -6284,7 +6239,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>26</v>
       </c>
@@ -6352,7 +6307,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -6420,7 +6375,7 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>26</v>
       </c>
@@ -6488,7 +6443,7 @@
         <v>7.335</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
@@ -6556,7 +6511,7 @@
         <v>9.1579999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>26</v>
       </c>
@@ -6624,7 +6579,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>26</v>
       </c>
@@ -6692,7 +6647,7 @@
         <v>9.4350000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>26</v>
       </c>
@@ -6760,7 +6715,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6828,7 +6783,7 @@
         <v>4.5810000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -6896,7 +6851,7 @@
         <v>3.339</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>26</v>
       </c>
@@ -6964,7 +6919,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
@@ -7032,7 +6987,7 @@
         <v>3.1160000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>26</v>
       </c>
@@ -7100,7 +7055,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>26</v>
       </c>
@@ -7168,7 +7123,7 @@
         <v>5.8639999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>26</v>
       </c>
@@ -7236,7 +7191,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>26</v>
       </c>
@@ -7304,7 +7259,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>26</v>
       </c>
@@ -7372,7 +7327,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>26</v>
       </c>
@@ -7440,7 +7395,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
@@ -7508,8 +7463,8 @@
         <v>7.9690000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -7536,7 +7491,7 @@
       <c r="I85" s="3">
         <v>61.57</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="3">
         <v>102.3</v>
       </c>
       <c r="K85" s="3">
@@ -7576,8 +7531,8 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7604,7 +7559,7 @@
       <c r="I86" s="3">
         <v>65.47</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="3">
         <v>149.5</v>
       </c>
       <c r="K86" s="3">
@@ -7644,8 +7599,8 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -7672,7 +7627,7 @@
       <c r="I87" s="3">
         <v>87.32</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="3">
         <v>88.4</v>
       </c>
       <c r="K87" s="3">
@@ -7712,8 +7667,8 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -7740,7 +7695,7 @@
       <c r="I88" s="3">
         <v>76.97</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="3">
         <v>120.5</v>
       </c>
       <c r="K88" s="3">
@@ -7780,8 +7735,8 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -7808,7 +7763,7 @@
       <c r="I89" s="3">
         <v>57.75</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
         <v>46.93</v>
       </c>
       <c r="K89" s="3">
@@ -7848,8 +7803,8 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -7876,7 +7831,7 @@
       <c r="I90" s="3">
         <v>26.74</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
         <v>66.81</v>
       </c>
       <c r="K90" s="3">
@@ -7916,8 +7871,8 @@
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -7944,7 +7899,7 @@
       <c r="I91" s="3">
         <v>37.380000000000003</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
         <v>64.44</v>
       </c>
       <c r="K91" s="3">
@@ -7984,8 +7939,8 @@
         <v>2.6480000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -8012,7 +7967,7 @@
       <c r="I92" s="3">
         <v>40.51</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="3">
         <v>92.07</v>
       </c>
       <c r="K92" s="3">
@@ -8052,8 +8007,8 @@
         <v>6.9050000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -8080,7 +8035,7 @@
       <c r="I93" s="3">
         <v>4.2450000000000001</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
         <v>8.44</v>
       </c>
       <c r="K93" s="3">
@@ -8120,8 +8075,8 @@
         <v>3.7730000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -8148,7 +8103,7 @@
       <c r="I94" s="3">
         <v>21.01</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
         <v>37.840000000000003</v>
       </c>
       <c r="K94" s="3">
@@ -8188,7 +8143,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8211,7 @@
         <v>5.7220000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -8324,7 +8279,7 @@
         <v>2.5550000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -8392,7 +8347,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -8460,7 +8415,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -8528,7 +8483,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -8596,7 +8551,7 @@
         <v>5.2309999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -8664,7 +8619,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -8732,7 +8687,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -8800,7 +8755,7 @@
         <v>7.6550000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -8868,8 +8823,8 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -8896,7 +8851,7 @@
       <c r="I105" s="3">
         <v>84.63</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="3">
         <v>35.56</v>
       </c>
       <c r="K105" s="3">
@@ -8920,7 +8875,7 @@
       <c r="Q105" s="3">
         <v>14.46</v>
       </c>
-      <c r="R105" s="7">
+      <c r="R105" s="4">
         <v>1</v>
       </c>
       <c r="S105" s="3">
@@ -8936,8 +8891,8 @@
         <v>1.121</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -8964,7 +8919,7 @@
       <c r="I106" s="3">
         <v>24.67</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="3">
         <v>4.8209999999999997</v>
       </c>
       <c r="K106" s="3">
@@ -9004,8 +8959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -9032,7 +8987,7 @@
       <c r="I107" s="3">
         <v>153.19999999999999</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="3">
         <v>30.45</v>
       </c>
       <c r="K107" s="3">
@@ -9072,7 +9027,7 @@
         <v>6.4139999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
@@ -9140,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
@@ -9208,7 +9163,7 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
@@ -9276,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
@@ -9344,7 +9299,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
@@ -9412,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>4</v>
       </c>
@@ -9480,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>4</v>
       </c>
@@ -9548,7 +9503,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -9616,7 +9571,7 @@
         <v>5.1459999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -9684,7 +9639,7 @@
         <v>219.9</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>4</v>
       </c>
@@ -9752,7 +9707,7 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9775,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>4</v>
       </c>
@@ -9888,7 +9843,7 @@
         <v>1.8089999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>27</v>
       </c>
@@ -9956,7 +9911,7 @@
         <v>7.8719999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>27</v>
       </c>
@@ -10008,7 +9963,7 @@
       <c r="Q121" s="3">
         <v>6.6529999999999996</v>
       </c>
-      <c r="R121" s="7">
+      <c r="R121" s="4">
         <v>1</v>
       </c>
       <c r="S121" s="3">
@@ -10024,7 +9979,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>27</v>
       </c>
@@ -10092,7 +10047,7 @@
         <v>7.8380000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>27</v>
       </c>
@@ -10160,7 +10115,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>27</v>
       </c>
@@ -10228,7 +10183,7 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>27</v>
       </c>
@@ -10296,7 +10251,7 @@
         <v>6.8579999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>27</v>
       </c>
@@ -10364,7 +10319,7 @@
         <v>5.9619999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>27</v>
       </c>
@@ -10432,7 +10387,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>27</v>
       </c>
@@ -10500,7 +10455,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>27</v>
       </c>
@@ -10568,7 +10523,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>27</v>
       </c>
@@ -10636,7 +10591,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>27</v>
       </c>
@@ -10704,7 +10659,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
@@ -10772,7 +10727,7 @@
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>27</v>
       </c>
@@ -10840,7 +10795,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>27</v>
       </c>
@@ -10908,7 +10863,7 @@
         <v>4.117</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>27</v>
       </c>
@@ -10976,7 +10931,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>27</v>
       </c>
@@ -11044,7 +10999,7 @@
         <v>5.4889999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>27</v>
       </c>
@@ -11112,7 +11067,7 @@
         <v>2.8839999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>27</v>
       </c>
@@ -11180,7 +11135,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>27</v>
       </c>
@@ -11248,7 +11203,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>28</v>
       </c>
@@ -11316,7 +11271,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>28</v>
       </c>
@@ -11384,7 +11339,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>28</v>
       </c>
@@ -11452,7 +11407,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>28</v>
       </c>
@@ -11520,7 +11475,7 @@
         <v>23.17</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>28</v>
       </c>
@@ -11588,7 +11543,7 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>28</v>
       </c>
@@ -11656,7 +11611,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>28</v>
       </c>
@@ -11724,7 +11679,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>28</v>
       </c>
@@ -11792,7 +11747,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>28</v>
       </c>
@@ -11860,7 +11815,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>28</v>
       </c>
@@ -11928,7 +11883,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>28</v>
       </c>
@@ -11996,7 +11951,7 @@
         <v>47.18</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>28</v>
       </c>
@@ -12064,7 +12019,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>28</v>
       </c>
@@ -12132,7 +12087,7 @@
         <v>45.93</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>28</v>
       </c>
@@ -12200,7 +12155,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>28</v>
       </c>
@@ -12268,7 +12223,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>28</v>
       </c>
@@ -12336,7 +12291,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>28</v>
       </c>
@@ -12404,7 +12359,7 @@
         <v>71.19</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>28</v>
       </c>
@@ -12472,7 +12427,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>28</v>
       </c>
@@ -12540,7 +12495,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>28</v>
       </c>
@@ -12608,7 +12563,7 @@
         <v>41.36</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>29</v>
       </c>
@@ -12676,7 +12631,7 @@
         <v>76.58</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>29</v>
       </c>
@@ -12744,7 +12699,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>29</v>
       </c>
@@ -12812,7 +12767,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>29</v>
       </c>
@@ -12880,7 +12835,7 @@
         <v>47.68</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>29</v>
       </c>
@@ -12948,7 +12903,7 @@
         <v>47.84</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>29</v>
       </c>
@@ -13016,7 +12971,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>29</v>
       </c>
@@ -13084,7 +13039,7 @@
         <v>2.7189999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>29</v>
       </c>
@@ -13152,7 +13107,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>29</v>
       </c>
@@ -13220,7 +13175,7 @@
         <v>8.5809999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>29</v>
       </c>
@@ -13288,7 +13243,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>29</v>
       </c>
@@ -13356,7 +13311,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>29</v>
       </c>
@@ -13424,7 +13379,7 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>29</v>
       </c>
@@ -13492,7 +13447,7 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>29</v>
       </c>
@@ -13560,7 +13515,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>29</v>
       </c>
@@ -13628,7 +13583,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>29</v>
       </c>
@@ -13696,7 +13651,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>29</v>
       </c>
@@ -13764,7 +13719,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>29</v>
       </c>
@@ -13832,7 +13787,7 @@
         <v>6.3109999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>29</v>
       </c>
@@ -13900,7 +13855,7 @@
         <v>5.0030000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>29</v>
       </c>
@@ -13968,7 +13923,7 @@
         <v>7.3869999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>30</v>
       </c>
@@ -14036,7 +13991,7 @@
         <v>6.3209999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>30</v>
       </c>
@@ -14104,7 +14059,7 @@
         <v>3.8719999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>30</v>
       </c>
@@ -14172,7 +14127,7 @@
         <v>6.8620000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>30</v>
       </c>
@@ -14240,7 +14195,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>30</v>
       </c>
@@ -14308,7 +14263,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>30</v>
       </c>
@@ -14376,7 +14331,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>30</v>
       </c>
@@ -14444,7 +14399,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>30</v>
       </c>
@@ -14512,7 +14467,7 @@
         <v>16.91</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>30</v>
       </c>
@@ -14580,7 +14535,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>30</v>
       </c>
@@ -14648,7 +14603,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>30</v>
       </c>
@@ -14716,7 +14671,7 @@
         <v>7.5119999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>30</v>
       </c>
@@ -14784,7 +14739,7 @@
         <v>8.5579999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>30</v>
       </c>
@@ -14852,7 +14807,7 @@
         <v>7.0549999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>30</v>
       </c>
@@ -14920,7 +14875,7 @@
         <v>3.819</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>30</v>
       </c>
@@ -14988,7 +14943,7 @@
         <v>3.5950000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>30</v>
       </c>
@@ -15056,7 +15011,7 @@
         <v>8.5020000000000007</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>30</v>
       </c>
@@ -15124,7 +15079,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>31</v>
       </c>
@@ -15192,7 +15147,7 @@
         <v>6.6769999999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>31</v>
       </c>
@@ -15260,7 +15215,7 @@
         <v>4.6159999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>31</v>
       </c>
@@ -15328,7 +15283,7 @@
         <v>7.0960000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>31</v>
       </c>
@@ -15396,7 +15351,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>31</v>
       </c>
@@ -15464,7 +15419,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>31</v>
       </c>
@@ -15532,7 +15487,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
         <v>31</v>
       </c>
@@ -15600,7 +15555,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
         <v>31</v>
       </c>
@@ -15668,7 +15623,7 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
         <v>31</v>
       </c>
@@ -15736,7 +15691,7 @@
         <v>7.843</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
         <v>31</v>
       </c>
@@ -15804,7 +15759,7 @@
         <v>7.5949999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
         <v>31</v>
       </c>
@@ -15872,7 +15827,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
         <v>31</v>
       </c>
@@ -15940,7 +15895,7 @@
         <v>8.3439999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
         <v>31</v>
       </c>
@@ -16008,7 +15963,7 @@
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
         <v>31</v>
       </c>
@@ -16076,7 +16031,7 @@
         <v>1.825</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
         <v>31</v>
       </c>
@@ -16144,7 +16099,7 @@
         <v>4.9210000000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
         <v>31</v>
       </c>
@@ -16212,7 +16167,7 @@
         <v>5.7869999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
         <v>31</v>
       </c>
@@ -16280,7 +16235,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
         <v>31</v>
       </c>
@@ -16348,7 +16303,7 @@
         <v>8.7739999999999991</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
         <v>31</v>
       </c>
@@ -16416,7 +16371,7 @@
         <v>4.774</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
         <v>31</v>
       </c>
@@ -16484,7 +16439,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
         <v>32</v>
       </c>
@@ -16552,7 +16507,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
         <v>32</v>
       </c>
@@ -16620,7 +16575,7 @@
         <v>2.6880000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
         <v>32</v>
       </c>
@@ -16688,7 +16643,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
         <v>32</v>
       </c>
@@ -16756,7 +16711,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
         <v>32</v>
       </c>
@@ -16824,7 +16779,7 @@
         <v>6.4669999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
         <v>32</v>
       </c>
@@ -16892,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
         <v>32</v>
       </c>
@@ -16960,7 +16915,7 @@
         <v>7.1959999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
         <v>32</v>
       </c>
@@ -17028,7 +16983,7 @@
         <v>4.5759999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
         <v>32</v>
       </c>
@@ -17096,7 +17051,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
         <v>32</v>
       </c>
@@ -17164,7 +17119,7 @@
         <v>6.2839999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
         <v>32</v>
       </c>
@@ -17232,7 +17187,7 @@
         <v>9.016</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
         <v>32</v>
       </c>
@@ -17300,7 +17255,7 @@
         <v>2.6720000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
         <v>32</v>
       </c>
@@ -17368,7 +17323,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
         <v>32</v>
       </c>
@@ -17436,7 +17391,7 @@
         <v>5.1219999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
         <v>32</v>
       </c>
@@ -17504,7 +17459,7 @@
         <v>8.6780000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A232" s="2" t="s">
         <v>32</v>
       </c>
@@ -17572,7 +17527,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A233" s="2" t="s">
         <v>32</v>
       </c>
@@ -17640,7 +17595,7 @@
         <v>15.59</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A234" s="2" t="s">
         <v>32</v>
       </c>
@@ -17708,7 +17663,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A235" s="2" t="s">
         <v>32</v>
       </c>
@@ -17776,7 +17731,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A236" s="2" t="s">
         <v>32</v>
       </c>
@@ -17844,7 +17799,7 @@
         <v>3.2669999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A237" s="2" t="s">
         <v>33</v>
       </c>
@@ -17912,7 +17867,7 @@
         <v>5.0510000000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A238" s="2" t="s">
         <v>33</v>
       </c>
@@ -17980,7 +17935,7 @@
         <v>49.31</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A239" s="2" t="s">
         <v>33</v>
       </c>
@@ -18048,7 +18003,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A240" s="2" t="s">
         <v>33</v>
       </c>
@@ -18116,7 +18071,7 @@
         <v>9.7469999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A241" s="2" t="s">
         <v>33</v>
       </c>
@@ -18184,7 +18139,7 @@
         <v>22.82</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A242" s="2" t="s">
         <v>33</v>
       </c>
@@ -18252,7 +18207,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A243" s="2" t="s">
         <v>33</v>
       </c>
@@ -18320,7 +18275,7 @@
         <v>59.38</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A244" s="2" t="s">
         <v>33</v>
       </c>
@@ -18388,7 +18343,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A245" s="2" t="s">
         <v>33</v>
       </c>
@@ -18456,7 +18411,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A246" s="2" t="s">
         <v>33</v>
       </c>
@@ -18524,7 +18479,7 @@
         <v>35.020000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A247" s="2" t="s">
         <v>33</v>
       </c>
@@ -18592,7 +18547,7 @@
         <v>6.3449999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A248" s="2" t="s">
         <v>33</v>
       </c>
@@ -18660,7 +18615,7 @@
         <v>42.73</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A249" s="2" t="s">
         <v>34</v>
       </c>
@@ -18728,7 +18683,7 @@
         <v>3.181</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A250" s="2" t="s">
         <v>34</v>
       </c>
@@ -18796,7 +18751,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A251" s="2" t="s">
         <v>34</v>
       </c>
@@ -18864,7 +18819,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A252" s="2" t="s">
         <v>34</v>
       </c>
@@ -18932,7 +18887,7 @@
         <v>6.1779999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A253" s="2" t="s">
         <v>34</v>
       </c>
@@ -19000,7 +18955,7 @@
         <v>5.8090000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A254" s="2" t="s">
         <v>34</v>
       </c>
@@ -19068,7 +19023,7 @@
         <v>5.0679999999999996</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A255" s="2" t="s">
         <v>34</v>
       </c>
@@ -19136,7 +19091,7 @@
         <v>5.6769999999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A256" s="2" t="s">
         <v>34</v>
       </c>
@@ -19204,7 +19159,7 @@
         <v>6.7519999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A257" s="2" t="s">
         <v>34</v>
       </c>
@@ -19272,7 +19227,7 @@
         <v>7.423</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A258" s="2" t="s">
         <v>34</v>
       </c>
@@ -19340,7 +19295,7 @@
         <v>2.4889999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A259" s="2" t="s">
         <v>34</v>
       </c>
@@ -19408,7 +19363,7 @@
         <v>7.8860000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A260" s="2" t="s">
         <v>34</v>
       </c>
@@ -19476,7 +19431,7 @@
         <v>4.8890000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A261" s="2" t="s">
         <v>34</v>
       </c>
@@ -19544,7 +19499,7 @@
         <v>2.831</v>
       </c>
     </row>
-    <row r="262" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A262" s="2" t="s">
         <v>34</v>
       </c>
@@ -19612,7 +19567,7 @@
         <v>2.754</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A263" s="2" t="s">
         <v>34</v>
       </c>
@@ -19680,7 +19635,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A264" s="2" t="s">
         <v>34</v>
       </c>
@@ -19748,7 +19703,7 @@
         <v>5.0039999999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A265" s="2" t="s">
         <v>34</v>
       </c>
@@ -19816,7 +19771,7 @@
         <v>4.0430000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A266" s="2" t="s">
         <v>34</v>
       </c>
@@ -19884,7 +19839,7 @@
         <v>3.4009999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A267" s="2" t="s">
         <v>34</v>
       </c>
@@ -19952,7 +19907,7 @@
         <v>5.266</v>
       </c>
     </row>
-    <row r="268" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A268" s="2" t="s">
         <v>34</v>
       </c>
@@ -20020,7 +19975,7 @@
         <v>5.7220000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A269" s="2" t="s">
         <v>35</v>
       </c>
@@ -20088,7 +20043,7 @@
         <v>6.0730000000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A270" s="2" t="s">
         <v>35</v>
       </c>
@@ -20156,7 +20111,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A271" s="2" t="s">
         <v>35</v>
       </c>
@@ -20224,7 +20179,7 @@
         <v>6.3159999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A272" s="2" t="s">
         <v>35</v>
       </c>
@@ -20292,7 +20247,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="273" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A273" s="2" t="s">
         <v>35</v>
       </c>
@@ -20360,7 +20315,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="274" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A274" s="2" t="s">
         <v>35</v>
       </c>
@@ -20428,7 +20383,7 @@
         <v>6.157</v>
       </c>
     </row>
-    <row r="275" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A275" s="2" t="s">
         <v>35</v>
       </c>
@@ -20496,7 +20451,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="276" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A276" s="2" t="s">
         <v>36</v>
       </c>
@@ -20564,7 +20519,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="277" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A277" s="2" t="s">
         <v>36</v>
       </c>
@@ -20632,7 +20587,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="278" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A278" s="2" t="s">
         <v>36</v>
       </c>
@@ -20700,7 +20655,7 @@
         <v>9.0340000000000007</v>
       </c>
     </row>
-    <row r="279" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A279" s="2" t="s">
         <v>36</v>
       </c>
@@ -20768,7 +20723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A280" s="2" t="s">
         <v>36</v>
       </c>
@@ -20836,7 +20791,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="281" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A281" s="2" t="s">
         <v>36</v>
       </c>
@@ -20904,7 +20859,7 @@
         <v>11.72</v>
       </c>
     </row>
-    <row r="282" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A282" s="2" t="s">
         <v>36</v>
       </c>
@@ -20972,7 +20927,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="283" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A283" s="2" t="s">
         <v>36</v>
       </c>
@@ -21040,7 +20995,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="284" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A284" s="2" t="s">
         <v>36</v>
       </c>
@@ -21108,7 +21063,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="285" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A285" s="2" t="s">
         <v>36</v>
       </c>
@@ -21176,7 +21131,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="286" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A286" s="2" t="s">
         <v>36</v>
       </c>
@@ -21244,7 +21199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A287" s="2" t="s">
         <v>36</v>
       </c>
@@ -21312,7 +21267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A288" s="2" t="s">
         <v>36</v>
       </c>
@@ -21380,7 +21335,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A289" s="2" t="s">
         <v>36</v>
       </c>
@@ -21448,7 +21403,7 @@
         <v>4.0919999999999996</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A290" s="2" t="s">
         <v>36</v>
       </c>
@@ -21516,7 +21471,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A291" s="2" t="s">
         <v>36</v>
       </c>
@@ -21584,7 +21539,7 @@
         <v>5.3579999999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A292" s="2" t="s">
         <v>36</v>
       </c>
@@ -21652,7 +21607,7 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A293" s="2" t="s">
         <v>36</v>
       </c>
@@ -21720,7 +21675,7 @@
         <v>9.5839999999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A294" s="2" t="s">
         <v>36</v>
       </c>
@@ -21788,7 +21743,7 @@
         <v>2.181</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A295" s="2" t="s">
         <v>36</v>
       </c>
@@ -21856,7 +21811,7 @@
         <v>47.66</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A296" s="2" t="s">
         <v>37</v>
       </c>
@@ -21924,7 +21879,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A297" s="2" t="s">
         <v>37</v>
       </c>
@@ -21992,7 +21947,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A298" s="2" t="s">
         <v>37</v>
       </c>
@@ -22060,7 +22015,7 @@
         <v>59.26</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A299" s="2" t="s">
         <v>37</v>
       </c>
@@ -22128,7 +22083,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A300" s="2" t="s">
         <v>37</v>
       </c>
@@ -22196,7 +22151,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A301" s="2" t="s">
         <v>37</v>
       </c>
@@ -22264,7 +22219,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A302" s="2" t="s">
         <v>37</v>
       </c>
@@ -22332,7 +22287,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A303" s="2" t="s">
         <v>37</v>
       </c>
@@ -22400,7 +22355,7 @@
         <v>5.4930000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A304" s="2" t="s">
         <v>37</v>
       </c>
@@ -22468,7 +22423,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A305" s="2" t="s">
         <v>37</v>
       </c>
@@ -22536,7 +22491,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A306" s="2" t="s">
         <v>37</v>
       </c>
@@ -22564,7 +22519,7 @@
       <c r="I306" s="3">
         <v>5672</v>
       </c>
-      <c r="J306" s="4">
+      <c r="J306" s="3">
         <v>4697</v>
       </c>
       <c r="K306" s="3">
@@ -22604,7 +22559,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="307" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A307" s="2" t="s">
         <v>37</v>
       </c>
@@ -22632,7 +22587,7 @@
       <c r="I307" s="3">
         <v>3103</v>
       </c>
-      <c r="J307" s="4">
+      <c r="J307" s="3">
         <v>2063</v>
       </c>
       <c r="K307" s="3">
@@ -22672,7 +22627,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="308" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A308" s="2" t="s">
         <v>37</v>
       </c>
@@ -22700,7 +22655,7 @@
       <c r="I308" s="3">
         <v>366.4</v>
       </c>
-      <c r="J308" s="4">
+      <c r="J308" s="3">
         <v>347.2</v>
       </c>
       <c r="K308" s="3">
@@ -22740,7 +22695,7 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="309" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A309" s="2" t="s">
         <v>37</v>
       </c>
@@ -22768,7 +22723,7 @@
       <c r="I309" s="3">
         <v>70.459999999999994</v>
       </c>
-      <c r="J309" s="4">
+      <c r="J309" s="3">
         <v>71.81</v>
       </c>
       <c r="K309" s="3">
@@ -22808,7 +22763,7 @@
         <v>6.3129999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A310" s="2" t="s">
         <v>37</v>
       </c>
@@ -22836,7 +22791,7 @@
       <c r="I310" s="3">
         <v>687.5</v>
       </c>
-      <c r="J310" s="4">
+      <c r="J310" s="3">
         <v>641.70000000000005</v>
       </c>
       <c r="K310" s="3">
@@ -22876,7 +22831,7 @@
         <v>64.37</v>
       </c>
     </row>
-    <row r="311" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A311" s="2" t="s">
         <v>37</v>
       </c>
@@ -22904,7 +22859,7 @@
       <c r="I311" s="3">
         <v>299.10000000000002</v>
       </c>
-      <c r="J311" s="4">
+      <c r="J311" s="3">
         <v>255.7</v>
       </c>
       <c r="K311" s="3">
@@ -22944,7 +22899,7 @@
         <v>9.3650000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A312" s="2" t="s">
         <v>37</v>
       </c>
@@ -22972,7 +22927,7 @@
       <c r="I312" s="3">
         <v>913.2</v>
       </c>
-      <c r="J312" s="4">
+      <c r="J312" s="3">
         <v>941.9</v>
       </c>
       <c r="K312" s="3">
@@ -23012,7 +22967,7 @@
         <v>40.65</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A313" s="2" t="s">
         <v>37</v>
       </c>
@@ -23040,7 +22995,7 @@
       <c r="I313" s="3">
         <v>332.6</v>
       </c>
-      <c r="J313" s="4">
+      <c r="J313" s="3">
         <v>358.5</v>
       </c>
       <c r="K313" s="3">
@@ -23080,7 +23035,7 @@
         <v>20.56</v>
       </c>
     </row>
-    <row r="314" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A314" s="2" t="s">
         <v>37</v>
       </c>
@@ -23108,7 +23063,7 @@
       <c r="I314" s="3">
         <v>119.7</v>
       </c>
-      <c r="J314" s="4">
+      <c r="J314" s="3">
         <v>91.47</v>
       </c>
       <c r="K314" s="3">
@@ -23148,7 +23103,7 @@
         <v>5.1269999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A315" s="2" t="s">
         <v>37</v>
       </c>
@@ -23176,7 +23131,7 @@
       <c r="I315" s="3">
         <v>1088</v>
       </c>
-      <c r="J315" s="4">
+      <c r="J315" s="3">
         <v>639.20000000000005</v>
       </c>
       <c r="K315" s="3">
@@ -23216,7 +23171,7 @@
         <v>48.31</v>
       </c>
     </row>
-    <row r="316" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A316" s="2" t="s">
         <v>38</v>
       </c>
@@ -23284,7 +23239,7 @@
         <v>415.7</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A317" s="2" t="s">
         <v>38</v>
       </c>
@@ -23352,7 +23307,7 @@
         <v>293.7</v>
       </c>
     </row>
-    <row r="318" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A318" s="2" t="s">
         <v>38</v>
       </c>
@@ -23420,7 +23375,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="319" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A319" s="2" t="s">
         <v>38</v>
       </c>
@@ -23488,7 +23443,7 @@
         <v>582.79999999999995</v>
       </c>
     </row>
-    <row r="320" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A320" s="2" t="s">
         <v>38</v>
       </c>
@@ -23556,7 +23511,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="321" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A321" s="2" t="s">
         <v>38</v>
       </c>
@@ -23624,7 +23579,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="322" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A322" s="2" t="s">
         <v>38</v>
       </c>
@@ -23692,7 +23647,7 @@
         <v>295.60000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A323" s="2" t="s">
         <v>38</v>
       </c>
@@ -23760,7 +23715,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="324" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A324" s="2" t="s">
         <v>38</v>
       </c>
@@ -23828,7 +23783,7 @@
         <v>981.3</v>
       </c>
     </row>
-    <row r="325" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A325" s="2" t="s">
         <v>38</v>
       </c>
@@ -23896,7 +23851,7 @@
         <v>213.6</v>
       </c>
     </row>
-    <row r="326" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A326" s="2" t="s">
         <v>38</v>
       </c>
@@ -23964,7 +23919,7 @@
         <v>741.2</v>
       </c>
     </row>
-    <row r="327" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A327" s="2" t="s">
         <v>39</v>
       </c>
@@ -24032,7 +23987,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="328" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A328" s="2" t="s">
         <v>39</v>
       </c>
@@ -24100,7 +24055,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="329" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A329" s="2" t="s">
         <v>39</v>
       </c>
@@ -24168,7 +24123,7 @@
         <v>44.95</v>
       </c>
     </row>
-    <row r="330" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A330" s="2" t="s">
         <v>39</v>
       </c>
@@ -24236,7 +24191,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="331" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A331" s="2" t="s">
         <v>39</v>
       </c>
@@ -24304,7 +24259,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="332" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A332" s="2" t="s">
         <v>39</v>
       </c>
@@ -24372,7 +24327,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="333" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A333" s="2" t="s">
         <v>39</v>
       </c>
@@ -24440,7 +24395,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="334" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A334" s="2" t="s">
         <v>39</v>
       </c>
@@ -24508,7 +24463,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="335" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A335" s="2" t="s">
         <v>39</v>
       </c>
@@ -24576,7 +24531,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="336" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A336" s="2" t="s">
         <v>39</v>
       </c>
@@ -24644,7 +24599,7 @@
         <v>34.61</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A337" s="2" t="s">
         <v>39</v>
       </c>
@@ -24712,7 +24667,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A338" s="2" t="s">
         <v>39</v>
       </c>
@@ -24780,7 +24735,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="339" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A339" s="2" t="s">
         <v>39</v>
       </c>
@@ -24848,7 +24803,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="340" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A340" s="2" t="s">
         <v>39</v>
       </c>
@@ -24916,7 +24871,7 @@
         <v>31.04</v>
       </c>
     </row>
-    <row r="341" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A341" s="2" t="s">
         <v>39</v>
       </c>
@@ -24984,7 +24939,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="342" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A342" s="2" t="s">
         <v>39</v>
       </c>
@@ -25052,7 +25007,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="343" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A343" s="2" t="s">
         <v>39</v>
       </c>
@@ -25120,7 +25075,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A344" s="2" t="s">
         <v>39</v>
       </c>
@@ -25188,7 +25143,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A345" s="2" t="s">
         <v>39</v>
       </c>
@@ -25256,7 +25211,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="346" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A346" s="2" t="s">
         <v>39</v>
       </c>
@@ -25324,3335 +25279,3335 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A347" s="8" t="s">
+    <row r="347" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A347" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C347" s="9">
+      <c r="C347" s="3">
         <v>75.510000000000005</v>
       </c>
-      <c r="D347" s="9">
+      <c r="D347" s="3">
         <v>64.72</v>
       </c>
-      <c r="E347" s="9">
+      <c r="E347" s="3">
         <v>40.909999999999997</v>
       </c>
-      <c r="F347" s="9">
+      <c r="F347" s="3">
         <v>56.85</v>
       </c>
-      <c r="G347" s="9">
+      <c r="G347" s="3">
         <v>61.11</v>
       </c>
-      <c r="H347" s="9">
+      <c r="H347" s="3">
         <v>72.91</v>
       </c>
-      <c r="I347" s="9">
+      <c r="I347" s="3">
         <v>42.16</v>
       </c>
-      <c r="J347" s="9">
+      <c r="J347" s="3">
         <v>68.91</v>
       </c>
-      <c r="K347" s="9">
+      <c r="K347" s="3">
         <v>57.53</v>
       </c>
-      <c r="L347" s="9">
+      <c r="L347" s="3">
         <v>54.81</v>
       </c>
-      <c r="M347" s="9">
+      <c r="M347" s="3">
         <v>58.16</v>
       </c>
-      <c r="N347" s="9">
+      <c r="N347" s="3">
         <v>52.05</v>
       </c>
-      <c r="O347" s="9">
+      <c r="O347" s="3">
         <v>28.35</v>
       </c>
-      <c r="P347" s="9">
+      <c r="P347" s="3">
         <v>65.260000000000005</v>
       </c>
-      <c r="Q347" s="9">
+      <c r="Q347" s="3">
         <v>21.63</v>
       </c>
-      <c r="R347" s="9">
+      <c r="R347" s="3">
         <v>1</v>
       </c>
-      <c r="S347" s="9">
+      <c r="S347" s="3">
         <v>6.1710000000000003</v>
       </c>
-      <c r="T347" s="9">
+      <c r="T347" s="3">
         <v>5.26</v>
       </c>
-      <c r="U347" s="9">
+      <c r="U347" s="3">
         <v>6.4279999999999999</v>
       </c>
-      <c r="V347" s="9">
+      <c r="V347" s="3">
         <v>2.2189999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A348" s="8" t="s">
+    <row r="348" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A348" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C348" s="9">
+      <c r="C348" s="3">
         <v>460.8</v>
       </c>
-      <c r="D348" s="9">
+      <c r="D348" s="3">
         <v>368.7</v>
       </c>
-      <c r="E348" s="9">
+      <c r="E348" s="3">
         <v>343.9</v>
       </c>
-      <c r="F348" s="9">
+      <c r="F348" s="3">
         <v>508.2</v>
       </c>
-      <c r="G348" s="9">
+      <c r="G348" s="3">
         <v>337.7</v>
       </c>
-      <c r="H348" s="9">
+      <c r="H348" s="3">
         <v>368.5</v>
       </c>
-      <c r="I348" s="9">
+      <c r="I348" s="3">
         <v>346.4</v>
       </c>
-      <c r="J348" s="9">
+      <c r="J348" s="3">
         <v>486.2</v>
       </c>
-      <c r="K348" s="9">
+      <c r="K348" s="3">
         <v>450.2</v>
       </c>
-      <c r="L348" s="9">
+      <c r="L348" s="3">
         <v>553.5</v>
       </c>
-      <c r="M348" s="9">
+      <c r="M348" s="3">
         <v>412.6</v>
       </c>
-      <c r="N348" s="9">
+      <c r="N348" s="3">
         <v>319.39999999999998</v>
       </c>
-      <c r="O348" s="9">
+      <c r="O348" s="3">
         <v>187.5</v>
       </c>
-      <c r="P348" s="9">
+      <c r="P348" s="3">
         <v>276.8</v>
       </c>
-      <c r="Q348" s="9">
+      <c r="Q348" s="3">
         <v>129.9</v>
       </c>
-      <c r="R348" s="9">
+      <c r="R348" s="3">
         <v>101.9</v>
       </c>
-      <c r="S348" s="9">
+      <c r="S348" s="3">
         <v>42.2</v>
       </c>
-      <c r="T348" s="9">
+      <c r="T348" s="3">
         <v>127.6</v>
       </c>
-      <c r="U348" s="9">
+      <c r="U348" s="3">
         <v>113</v>
       </c>
-      <c r="V348" s="9">
+      <c r="V348" s="3">
         <v>26.88</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A349" s="8" t="s">
+    <row r="349" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A349" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C349" s="9">
+      <c r="C349" s="3">
         <v>801.1</v>
       </c>
-      <c r="D349" s="9">
+      <c r="D349" s="3">
         <v>673.9</v>
       </c>
-      <c r="E349" s="9">
+      <c r="E349" s="3">
         <v>492.8</v>
       </c>
-      <c r="F349" s="9">
+      <c r="F349" s="3">
         <v>698.6</v>
       </c>
-      <c r="G349" s="9">
+      <c r="G349" s="3">
         <v>636.5</v>
       </c>
-      <c r="H349" s="9">
+      <c r="H349" s="3">
         <v>675.3</v>
       </c>
-      <c r="I349" s="9">
+      <c r="I349" s="3">
         <v>461.9</v>
       </c>
-      <c r="J349" s="9">
+      <c r="J349" s="3">
         <v>605.9</v>
       </c>
-      <c r="K349" s="9">
+      <c r="K349" s="3">
         <v>661.3</v>
       </c>
-      <c r="L349" s="9">
+      <c r="L349" s="3">
         <v>620.4</v>
       </c>
-      <c r="M349" s="9">
+      <c r="M349" s="3">
         <v>724.9</v>
       </c>
-      <c r="N349" s="9">
+      <c r="N349" s="3">
         <v>326.10000000000002</v>
       </c>
-      <c r="O349" s="9">
+      <c r="O349" s="3">
         <v>251.2</v>
       </c>
-      <c r="P349" s="9">
+      <c r="P349" s="3">
         <v>500.7</v>
       </c>
-      <c r="Q349" s="9">
+      <c r="Q349" s="3">
         <v>381.1</v>
       </c>
-      <c r="R349" s="9">
+      <c r="R349" s="3">
         <v>45.09</v>
       </c>
-      <c r="S349" s="9">
+      <c r="S349" s="3">
         <v>57.79</v>
       </c>
-      <c r="T349" s="9">
+      <c r="T349" s="3">
         <v>63.94</v>
       </c>
-      <c r="U349" s="9">
+      <c r="U349" s="3">
         <v>69.64</v>
       </c>
-      <c r="V349" s="9">
+      <c r="V349" s="3">
         <v>30.38</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A350" s="8" t="s">
+    <row r="350" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A350" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C350" s="9">
+      <c r="C350" s="3">
         <v>50.71</v>
       </c>
-      <c r="D350" s="9">
+      <c r="D350" s="3">
         <v>44.9</v>
       </c>
-      <c r="E350" s="9">
+      <c r="E350" s="3">
         <v>28.12</v>
       </c>
-      <c r="F350" s="9">
+      <c r="F350" s="3">
         <v>33.979999999999997</v>
       </c>
-      <c r="G350" s="9">
+      <c r="G350" s="3">
         <v>33.85</v>
       </c>
-      <c r="H350" s="9">
+      <c r="H350" s="3">
         <v>40.770000000000003</v>
       </c>
-      <c r="I350" s="9">
+      <c r="I350" s="3">
         <v>28.76</v>
       </c>
-      <c r="J350" s="9">
+      <c r="J350" s="3">
         <v>29.42</v>
       </c>
-      <c r="K350" s="9">
+      <c r="K350" s="3">
         <v>41.73</v>
       </c>
-      <c r="L350" s="9">
+      <c r="L350" s="3">
         <v>42.81</v>
       </c>
-      <c r="M350" s="9">
+      <c r="M350" s="3">
         <v>43.21</v>
       </c>
-      <c r="N350" s="9">
+      <c r="N350" s="3">
         <v>28.91</v>
       </c>
-      <c r="O350" s="9">
+      <c r="O350" s="3">
         <v>19</v>
       </c>
-      <c r="P350" s="9">
+      <c r="P350" s="3">
         <v>37.53</v>
       </c>
-      <c r="Q350" s="9">
+      <c r="Q350" s="3">
         <v>16.14</v>
       </c>
-      <c r="R350" s="9">
+      <c r="R350" s="3">
         <v>1</v>
       </c>
-      <c r="S350" s="9">
+      <c r="S350" s="3">
         <v>2.0070000000000001</v>
       </c>
-      <c r="T350" s="9">
+      <c r="T350" s="3">
         <v>2.4119999999999999</v>
       </c>
-      <c r="U350" s="9">
+      <c r="U350" s="3">
         <v>1.0529999999999999</v>
       </c>
-      <c r="V350" s="9">
+      <c r="V350" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A351" s="8" t="s">
+    <row r="351" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A351" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C351" s="9">
+      <c r="C351" s="3">
         <v>2119</v>
       </c>
-      <c r="D351" s="9">
+      <c r="D351" s="3">
         <v>1825</v>
       </c>
-      <c r="E351" s="9">
+      <c r="E351" s="3">
         <v>1255</v>
       </c>
-      <c r="F351" s="9">
+      <c r="F351" s="3">
         <v>2369</v>
       </c>
-      <c r="G351" s="9">
+      <c r="G351" s="3">
         <v>1398</v>
       </c>
-      <c r="H351" s="9">
+      <c r="H351" s="3">
         <v>1616</v>
       </c>
-      <c r="I351" s="9">
+      <c r="I351" s="3">
         <v>1281</v>
       </c>
-      <c r="J351" s="9">
+      <c r="J351" s="3">
         <v>1341</v>
       </c>
-      <c r="K351" s="9">
+      <c r="K351" s="3">
         <v>1699</v>
       </c>
-      <c r="L351" s="9">
+      <c r="L351" s="3">
         <v>1887</v>
       </c>
-      <c r="M351" s="9">
+      <c r="M351" s="3">
         <v>1584</v>
       </c>
-      <c r="N351" s="9">
+      <c r="N351" s="3">
         <v>381.8</v>
       </c>
-      <c r="O351" s="9">
+      <c r="O351" s="3">
         <v>393.6</v>
       </c>
-      <c r="P351" s="9">
+      <c r="P351" s="3">
         <v>1123</v>
       </c>
-      <c r="Q351" s="9">
+      <c r="Q351" s="3">
         <v>667</v>
       </c>
-      <c r="R351" s="9">
+      <c r="R351" s="3">
         <v>86.21</v>
       </c>
-      <c r="S351" s="9">
+      <c r="S351" s="3">
         <v>124.6</v>
       </c>
-      <c r="T351" s="9">
+      <c r="T351" s="3">
         <v>139.69999999999999</v>
       </c>
-      <c r="U351" s="9">
+      <c r="U351" s="3">
         <v>103.6</v>
       </c>
-      <c r="V351" s="9">
+      <c r="V351" s="3">
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A352" s="8" t="s">
+    <row r="352" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A352" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C352" s="9">
+      <c r="C352" s="3">
         <v>2241</v>
       </c>
-      <c r="D352" s="9">
+      <c r="D352" s="3">
         <v>1962</v>
       </c>
-      <c r="E352" s="9">
+      <c r="E352" s="3">
         <v>1350</v>
       </c>
-      <c r="F352" s="9">
+      <c r="F352" s="3">
         <v>1791</v>
       </c>
-      <c r="G352" s="9">
+      <c r="G352" s="3">
         <v>1755</v>
       </c>
-      <c r="H352" s="9">
+      <c r="H352" s="3">
         <v>2121</v>
       </c>
-      <c r="I352" s="9">
+      <c r="I352" s="3">
         <v>1172</v>
       </c>
-      <c r="J352" s="9">
+      <c r="J352" s="3">
         <v>1138</v>
       </c>
-      <c r="K352" s="9">
+      <c r="K352" s="3">
         <v>1895</v>
       </c>
-      <c r="L352" s="9">
+      <c r="L352" s="3">
         <v>1547</v>
       </c>
-      <c r="M352" s="9">
+      <c r="M352" s="3">
         <v>1667</v>
       </c>
-      <c r="N352" s="9">
+      <c r="N352" s="3">
         <v>264.5</v>
       </c>
-      <c r="O352" s="9">
+      <c r="O352" s="3">
         <v>460.2</v>
       </c>
-      <c r="P352" s="9">
+      <c r="P352" s="3">
         <v>1424</v>
       </c>
-      <c r="Q352" s="9">
+      <c r="Q352" s="3">
         <v>1008</v>
       </c>
-      <c r="R352" s="9">
+      <c r="R352" s="3">
         <v>90.72</v>
       </c>
-      <c r="S352" s="9">
+      <c r="S352" s="3">
         <v>112</v>
       </c>
-      <c r="T352" s="9">
+      <c r="T352" s="3">
         <v>189.9</v>
       </c>
-      <c r="U352" s="9">
+      <c r="U352" s="3">
         <v>132</v>
       </c>
-      <c r="V352" s="9">
+      <c r="V352" s="3">
         <v>109.7</v>
       </c>
     </row>
-    <row r="353" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A353" s="8" t="s">
+    <row r="353" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A353" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C353" s="9">
+      <c r="C353" s="3">
         <v>5811</v>
       </c>
-      <c r="D353" s="9">
+      <c r="D353" s="3">
         <v>4932</v>
       </c>
-      <c r="E353" s="9">
+      <c r="E353" s="3">
         <v>3041</v>
       </c>
-      <c r="F353" s="9">
+      <c r="F353" s="3">
         <v>6747</v>
       </c>
-      <c r="G353" s="9">
+      <c r="G353" s="3">
         <v>3631</v>
       </c>
-      <c r="H353" s="9">
+      <c r="H353" s="3">
         <v>4319</v>
       </c>
-      <c r="I353" s="9">
+      <c r="I353" s="3">
         <v>3491</v>
       </c>
-      <c r="J353" s="9">
+      <c r="J353" s="3">
         <v>2897</v>
       </c>
-      <c r="K353" s="9">
+      <c r="K353" s="3">
         <v>5497</v>
       </c>
-      <c r="L353" s="9">
+      <c r="L353" s="3">
         <v>4284</v>
       </c>
-      <c r="M353" s="9">
+      <c r="M353" s="3">
         <v>4157</v>
       </c>
-      <c r="N353" s="9">
+      <c r="N353" s="3">
         <v>989.3</v>
       </c>
-      <c r="O353" s="9">
+      <c r="O353" s="3">
         <v>1210</v>
       </c>
-      <c r="P353" s="9">
+      <c r="P353" s="3">
         <v>2281</v>
       </c>
-      <c r="Q353" s="9">
+      <c r="Q353" s="3">
         <v>1783</v>
       </c>
-      <c r="R353" s="9">
+      <c r="R353" s="3">
         <v>167.2</v>
       </c>
-      <c r="S353" s="9">
+      <c r="S353" s="3">
         <v>172.2</v>
       </c>
-      <c r="T353" s="9">
+      <c r="T353" s="3">
         <v>277.89999999999998</v>
       </c>
-      <c r="U353" s="9">
+      <c r="U353" s="3">
         <v>206.5</v>
       </c>
-      <c r="V353" s="9">
+      <c r="V353" s="3">
         <v>118.6</v>
       </c>
     </row>
-    <row r="354" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A354" s="8" t="s">
+    <row r="354" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A354" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C354" s="9">
+      <c r="C354" s="3">
         <v>5020</v>
       </c>
-      <c r="D354" s="9">
+      <c r="D354" s="3">
         <v>3812</v>
       </c>
-      <c r="E354" s="9">
+      <c r="E354" s="3">
         <v>2056</v>
       </c>
-      <c r="F354" s="9">
+      <c r="F354" s="3">
         <v>2578</v>
       </c>
-      <c r="G354" s="9">
+      <c r="G354" s="3">
         <v>1944</v>
       </c>
-      <c r="H354" s="9">
+      <c r="H354" s="3">
         <v>2960</v>
       </c>
-      <c r="I354" s="9">
+      <c r="I354" s="3">
         <v>2261</v>
       </c>
-      <c r="J354" s="9">
+      <c r="J354" s="3">
         <v>1576</v>
       </c>
-      <c r="K354" s="9">
+      <c r="K354" s="3">
         <v>2715</v>
       </c>
-      <c r="L354" s="9">
+      <c r="L354" s="3">
         <v>2517</v>
       </c>
-      <c r="M354" s="9">
+      <c r="M354" s="3">
         <v>2895</v>
       </c>
-      <c r="N354" s="9">
+      <c r="N354" s="3">
         <v>535.70000000000005</v>
       </c>
-      <c r="O354" s="9">
+      <c r="O354" s="3">
         <v>663.9</v>
       </c>
-      <c r="P354" s="9">
+      <c r="P354" s="3">
         <v>1569</v>
       </c>
-      <c r="Q354" s="9">
+      <c r="Q354" s="3">
         <v>1100</v>
       </c>
-      <c r="R354" s="9">
+      <c r="R354" s="3">
         <v>207.7</v>
       </c>
-      <c r="S354" s="9">
+      <c r="S354" s="3">
         <v>219.4</v>
       </c>
-      <c r="T354" s="9">
+      <c r="T354" s="3">
         <v>343.8</v>
       </c>
-      <c r="U354" s="9">
+      <c r="U354" s="3">
         <v>282.39999999999998</v>
       </c>
-      <c r="V354" s="9">
+      <c r="V354" s="3">
         <v>284.89999999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A355" s="8" t="s">
+    <row r="355" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A355" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C355" s="9">
+      <c r="C355" s="3">
         <v>1075</v>
       </c>
-      <c r="D355" s="9">
+      <c r="D355" s="3">
         <v>895.3</v>
       </c>
-      <c r="E355" s="9">
+      <c r="E355" s="3">
         <v>466.3</v>
       </c>
-      <c r="F355" s="9">
+      <c r="F355" s="3">
         <v>592.1</v>
       </c>
-      <c r="G355" s="9">
+      <c r="G355" s="3">
         <v>681.3</v>
       </c>
-      <c r="H355" s="9">
+      <c r="H355" s="3">
         <v>782.8</v>
       </c>
-      <c r="I355" s="9">
+      <c r="I355" s="3">
         <v>454.4</v>
       </c>
-      <c r="J355" s="9">
+      <c r="J355" s="3">
         <v>485.1</v>
       </c>
-      <c r="K355" s="9">
+      <c r="K355" s="3">
         <v>650.29999999999995</v>
       </c>
-      <c r="L355" s="9">
+      <c r="L355" s="3">
         <v>637.4</v>
       </c>
-      <c r="M355" s="9">
+      <c r="M355" s="3">
         <v>713</v>
       </c>
-      <c r="N355" s="9">
+      <c r="N355" s="3">
         <v>159.5</v>
       </c>
-      <c r="O355" s="9">
+      <c r="O355" s="3">
         <v>151.19999999999999</v>
       </c>
-      <c r="P355" s="9">
+      <c r="P355" s="3">
         <v>392.2</v>
       </c>
-      <c r="Q355" s="9">
+      <c r="Q355" s="3">
         <v>361</v>
       </c>
-      <c r="R355" s="9">
+      <c r="R355" s="3">
         <v>21.76</v>
       </c>
-      <c r="S355" s="9">
+      <c r="S355" s="3">
         <v>42.68</v>
       </c>
-      <c r="T355" s="9">
+      <c r="T355" s="3">
         <v>43.51</v>
       </c>
-      <c r="U355" s="9">
+      <c r="U355" s="3">
         <v>41.85</v>
       </c>
-      <c r="V355" s="9">
+      <c r="V355" s="3">
         <v>31.45</v>
       </c>
     </row>
-    <row r="356" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A356" s="8" t="s">
+    <row r="356" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A356" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C356" s="9">
+      <c r="C356" s="3">
         <v>405.8</v>
       </c>
-      <c r="D356" s="9">
+      <c r="D356" s="3">
         <v>308.60000000000002</v>
       </c>
-      <c r="E356" s="9">
+      <c r="E356" s="3">
         <v>308.2</v>
       </c>
-      <c r="F356" s="9">
+      <c r="F356" s="3">
         <v>330.3</v>
       </c>
-      <c r="G356" s="9">
+      <c r="G356" s="3">
         <v>294.2</v>
       </c>
-      <c r="H356" s="9">
+      <c r="H356" s="3">
         <v>358.8</v>
       </c>
-      <c r="I356" s="9">
+      <c r="I356" s="3">
         <v>274.39999999999998</v>
       </c>
-      <c r="J356" s="9">
+      <c r="J356" s="3">
         <v>222.7</v>
       </c>
-      <c r="K356" s="9">
+      <c r="K356" s="3">
         <v>300</v>
       </c>
-      <c r="L356" s="9">
+      <c r="L356" s="3">
         <v>285.60000000000002</v>
       </c>
-      <c r="M356" s="9">
+      <c r="M356" s="3">
         <v>312.7</v>
       </c>
-      <c r="N356" s="9">
+      <c r="N356" s="3">
         <v>153.4</v>
       </c>
-      <c r="O356" s="9">
+      <c r="O356" s="3">
         <v>169</v>
       </c>
-      <c r="P356" s="9">
+      <c r="P356" s="3">
         <v>238.7</v>
       </c>
-      <c r="Q356" s="9">
+      <c r="Q356" s="3">
         <v>179</v>
       </c>
-      <c r="R356" s="9">
+      <c r="R356" s="3">
         <v>27.47</v>
       </c>
-      <c r="S356" s="9">
+      <c r="S356" s="3">
         <v>41.96</v>
       </c>
-      <c r="T356" s="9">
+      <c r="T356" s="3">
         <v>41.07</v>
       </c>
-      <c r="U356" s="9">
+      <c r="U356" s="3">
         <v>48.41</v>
       </c>
-      <c r="V356" s="9">
+      <c r="V356" s="3">
         <v>21.75</v>
       </c>
     </row>
-    <row r="357" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A357" s="8" t="s">
+    <row r="357" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A357" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C357" s="9">
+      <c r="C357" s="3">
         <v>1105</v>
       </c>
-      <c r="D357" s="9">
+      <c r="D357" s="3">
         <v>925</v>
       </c>
-      <c r="E357" s="9">
+      <c r="E357" s="3">
         <v>782.2</v>
       </c>
-      <c r="F357" s="9">
+      <c r="F357" s="3">
         <v>796.4</v>
       </c>
-      <c r="G357" s="9">
+      <c r="G357" s="3">
         <v>910.3</v>
       </c>
-      <c r="H357" s="9">
+      <c r="H357" s="3">
         <v>1020</v>
       </c>
-      <c r="I357" s="9">
+      <c r="I357" s="3">
         <v>768.4</v>
       </c>
-      <c r="J357" s="9">
+      <c r="J357" s="3">
         <v>660.8</v>
       </c>
-      <c r="K357" s="9">
+      <c r="K357" s="3">
         <v>808.1</v>
       </c>
-      <c r="L357" s="9">
+      <c r="L357" s="3">
         <v>748.4</v>
       </c>
-      <c r="M357" s="9">
+      <c r="M357" s="3">
         <v>796.4</v>
       </c>
-      <c r="N357" s="9">
+      <c r="N357" s="3">
         <v>380.1</v>
       </c>
-      <c r="O357" s="9">
+      <c r="O357" s="3">
         <v>389.7</v>
       </c>
-      <c r="P357" s="9">
+      <c r="P357" s="3">
         <v>568.70000000000005</v>
       </c>
-      <c r="Q357" s="9">
+      <c r="Q357" s="3">
         <v>444.6</v>
       </c>
-      <c r="R357" s="9">
+      <c r="R357" s="3">
         <v>34.880000000000003</v>
       </c>
-      <c r="S357" s="9">
+      <c r="S357" s="3">
         <v>48.14</v>
       </c>
-      <c r="T357" s="9">
+      <c r="T357" s="3">
         <v>85.65</v>
       </c>
-      <c r="U357" s="9">
+      <c r="U357" s="3">
         <v>55.21</v>
       </c>
-      <c r="V357" s="9">
+      <c r="V357" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="358" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A358" s="8" t="s">
+    <row r="358" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A358" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C358" s="9">
+      <c r="C358" s="3">
         <v>1365</v>
       </c>
-      <c r="D358" s="9">
+      <c r="D358" s="3">
         <v>1116</v>
       </c>
-      <c r="E358" s="9">
+      <c r="E358" s="3">
         <v>743.4</v>
       </c>
-      <c r="F358" s="9">
+      <c r="F358" s="3">
         <v>1117</v>
       </c>
-      <c r="G358" s="9">
+      <c r="G358" s="3">
         <v>1012</v>
       </c>
-      <c r="H358" s="9">
+      <c r="H358" s="3">
         <v>1162</v>
       </c>
-      <c r="I358" s="9">
+      <c r="I358" s="3">
         <v>733.3</v>
       </c>
-      <c r="J358" s="9">
+      <c r="J358" s="3">
         <v>896.7</v>
       </c>
-      <c r="K358" s="9">
+      <c r="K358" s="3">
         <v>1196</v>
       </c>
-      <c r="L358" s="9">
+      <c r="L358" s="3">
         <v>1146</v>
       </c>
-      <c r="M358" s="9">
+      <c r="M358" s="3">
         <v>1260</v>
       </c>
-      <c r="N358" s="9">
+      <c r="N358" s="3">
         <v>227.7</v>
       </c>
-      <c r="O358" s="9">
+      <c r="O358" s="3">
         <v>277.5</v>
       </c>
-      <c r="P358" s="9">
+      <c r="P358" s="3">
         <v>698.6</v>
       </c>
-      <c r="Q358" s="9">
+      <c r="Q358" s="3">
         <v>551.79999999999995</v>
       </c>
-      <c r="R358" s="9">
+      <c r="R358" s="3">
         <v>58.5</v>
       </c>
-      <c r="S358" s="9">
+      <c r="S358" s="3">
         <v>67.98</v>
       </c>
-      <c r="T358" s="9">
+      <c r="T358" s="3">
         <v>95.5</v>
       </c>
-      <c r="U358" s="9">
+      <c r="U358" s="3">
         <v>89.29</v>
       </c>
-      <c r="V358" s="9">
+      <c r="V358" s="3">
         <v>48.93</v>
       </c>
     </row>
-    <row r="359" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A359" s="8" t="s">
+    <row r="359" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A359" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C359" s="9">
+      <c r="C359" s="3">
         <v>357.1</v>
       </c>
-      <c r="D359" s="9">
+      <c r="D359" s="3">
         <v>301.7</v>
       </c>
-      <c r="E359" s="9">
+      <c r="E359" s="3">
         <v>200.1</v>
       </c>
-      <c r="F359" s="9">
+      <c r="F359" s="3">
         <v>229.8</v>
       </c>
-      <c r="G359" s="9">
+      <c r="G359" s="3">
         <v>278.10000000000002</v>
       </c>
-      <c r="H359" s="9">
+      <c r="H359" s="3">
         <v>322.7</v>
       </c>
-      <c r="I359" s="9">
+      <c r="I359" s="3">
         <v>192.5</v>
       </c>
-      <c r="J359" s="9">
+      <c r="J359" s="3">
         <v>201.9</v>
       </c>
-      <c r="K359" s="9">
+      <c r="K359" s="3">
         <v>285.39999999999998</v>
       </c>
-      <c r="L359" s="9">
+      <c r="L359" s="3">
         <v>250.2</v>
       </c>
-      <c r="M359" s="9">
+      <c r="M359" s="3">
         <v>285</v>
       </c>
-      <c r="N359" s="9">
+      <c r="N359" s="3">
         <v>82.21</v>
       </c>
-      <c r="O359" s="9">
+      <c r="O359" s="3">
         <v>95.6</v>
       </c>
-      <c r="P359" s="9">
+      <c r="P359" s="3">
         <v>224.3</v>
       </c>
-      <c r="Q359" s="9">
+      <c r="Q359" s="3">
         <v>151.80000000000001</v>
       </c>
-      <c r="R359" s="9">
+      <c r="R359" s="3">
         <v>52.29</v>
       </c>
-      <c r="S359" s="9">
+      <c r="S359" s="3">
         <v>40.270000000000003</v>
       </c>
-      <c r="T359" s="9">
+      <c r="T359" s="3">
         <v>68.89</v>
       </c>
-      <c r="U359" s="9">
+      <c r="U359" s="3">
         <v>60.59</v>
       </c>
-      <c r="V359" s="9">
+      <c r="V359" s="3">
         <v>29.48</v>
       </c>
     </row>
-    <row r="360" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A360" s="8" t="s">
+    <row r="360" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A360" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C360" s="9">
+      <c r="C360" s="3">
         <v>1687</v>
       </c>
-      <c r="D360" s="9">
+      <c r="D360" s="3">
         <v>1385</v>
       </c>
-      <c r="E360" s="9">
+      <c r="E360" s="3">
         <v>805.6</v>
       </c>
-      <c r="F360" s="9">
+      <c r="F360" s="3">
         <v>935</v>
       </c>
-      <c r="G360" s="9">
+      <c r="G360" s="3">
         <v>1055</v>
       </c>
-      <c r="H360" s="9">
+      <c r="H360" s="3">
         <v>1274</v>
       </c>
-      <c r="I360" s="9">
+      <c r="I360" s="3">
         <v>761.9</v>
       </c>
-      <c r="J360" s="9">
+      <c r="J360" s="3">
         <v>956.9</v>
       </c>
-      <c r="K360" s="9">
+      <c r="K360" s="3">
         <v>1197</v>
       </c>
-      <c r="L360" s="9">
+      <c r="L360" s="3">
         <v>1040</v>
       </c>
-      <c r="M360" s="9">
+      <c r="M360" s="3">
         <v>1109</v>
       </c>
-      <c r="N360" s="9">
+      <c r="N360" s="3">
         <v>338.9</v>
       </c>
-      <c r="O360" s="9">
+      <c r="O360" s="3">
         <v>446.2</v>
       </c>
-      <c r="P360" s="9">
+      <c r="P360" s="3">
         <v>878.4</v>
       </c>
-      <c r="Q360" s="9">
+      <c r="Q360" s="3">
         <v>530.20000000000005</v>
       </c>
-      <c r="R360" s="9">
+      <c r="R360" s="3">
         <v>58.25</v>
       </c>
-      <c r="S360" s="9">
+      <c r="S360" s="3">
         <v>85.39</v>
       </c>
-      <c r="T360" s="9">
+      <c r="T360" s="3">
         <v>114.5</v>
       </c>
-      <c r="U360" s="9">
+      <c r="U360" s="3">
         <v>91.85</v>
       </c>
-      <c r="V360" s="9">
+      <c r="V360" s="3">
         <v>50.44</v>
       </c>
     </row>
-    <row r="361" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A361" s="8" t="s">
+    <row r="361" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A361" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C361" s="9">
+      <c r="C361" s="3">
         <v>281.89999999999998</v>
       </c>
-      <c r="D361" s="9">
+      <c r="D361" s="3">
         <v>241.3</v>
       </c>
-      <c r="E361" s="9">
+      <c r="E361" s="3">
         <v>169.5</v>
       </c>
-      <c r="F361" s="9">
+      <c r="F361" s="3">
         <v>210.8</v>
       </c>
-      <c r="G361" s="9">
+      <c r="G361" s="3">
         <v>233.9</v>
       </c>
-      <c r="H361" s="9">
+      <c r="H361" s="3">
         <v>250.5</v>
       </c>
-      <c r="I361" s="9">
+      <c r="I361" s="3">
         <v>183.7</v>
       </c>
-      <c r="J361" s="9">
+      <c r="J361" s="3">
         <v>196.8</v>
       </c>
-      <c r="K361" s="9">
+      <c r="K361" s="3">
         <v>255.8</v>
       </c>
-      <c r="L361" s="9">
+      <c r="L361" s="3">
         <v>218.8</v>
       </c>
-      <c r="M361" s="9">
+      <c r="M361" s="3">
         <v>260.7</v>
       </c>
-      <c r="N361" s="9">
+      <c r="N361" s="3">
         <v>72.42</v>
       </c>
-      <c r="O361" s="9">
+      <c r="O361" s="3">
         <v>98.41</v>
       </c>
-      <c r="P361" s="9">
+      <c r="P361" s="3">
         <v>183.5</v>
       </c>
-      <c r="Q361" s="9">
+      <c r="Q361" s="3">
         <v>137.80000000000001</v>
       </c>
-      <c r="R361" s="9">
+      <c r="R361" s="3">
         <v>19.670000000000002</v>
       </c>
-      <c r="S361" s="9">
+      <c r="S361" s="3">
         <v>27.47</v>
       </c>
-      <c r="T361" s="9">
+      <c r="T361" s="3">
         <v>31.37</v>
       </c>
-      <c r="U361" s="9">
+      <c r="U361" s="3">
         <v>25.76</v>
       </c>
-      <c r="V361" s="9">
+      <c r="V361" s="3">
         <v>18.86</v>
       </c>
     </row>
-    <row r="362" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A362" s="8" t="s">
+    <row r="362" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A362" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C362" s="9">
+      <c r="C362" s="3">
         <v>1050</v>
       </c>
-      <c r="D362" s="9">
+      <c r="D362" s="3">
         <v>928.6</v>
       </c>
-      <c r="E362" s="9">
+      <c r="E362" s="3">
         <v>920.7</v>
       </c>
-      <c r="F362" s="9">
+      <c r="F362" s="3">
         <v>1028</v>
       </c>
-      <c r="G362" s="9">
+      <c r="G362" s="3">
         <v>794.9</v>
       </c>
-      <c r="H362" s="9">
+      <c r="H362" s="3">
         <v>843</v>
       </c>
-      <c r="I362" s="9">
+      <c r="I362" s="3">
         <v>746</v>
       </c>
-      <c r="J362" s="9">
+      <c r="J362" s="3">
         <v>827.4</v>
       </c>
-      <c r="K362" s="9">
+      <c r="K362" s="3">
         <v>828.2</v>
       </c>
-      <c r="L362" s="9">
+      <c r="L362" s="3">
         <v>800.5</v>
       </c>
-      <c r="M362" s="9">
+      <c r="M362" s="3">
         <v>863.8</v>
       </c>
-      <c r="N362" s="9">
+      <c r="N362" s="3">
         <v>417.2</v>
       </c>
-      <c r="O362" s="9">
+      <c r="O362" s="3">
         <v>461.6</v>
       </c>
-      <c r="P362" s="9">
+      <c r="P362" s="3">
         <v>873.7</v>
       </c>
-      <c r="Q362" s="9">
+      <c r="Q362" s="3">
         <v>567</v>
       </c>
-      <c r="R362" s="9">
+      <c r="R362" s="3">
         <v>50.63</v>
       </c>
-      <c r="S362" s="9">
+      <c r="S362" s="3">
         <v>91.13</v>
       </c>
-      <c r="T362" s="9">
+      <c r="T362" s="3">
         <v>99.84</v>
       </c>
-      <c r="U362" s="9">
+      <c r="U362" s="3">
         <v>82.04</v>
       </c>
-      <c r="V362" s="9">
+      <c r="V362" s="3">
         <v>62.92</v>
       </c>
     </row>
-    <row r="363" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A363" s="8" t="s">
+    <row r="363" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A363" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C363" s="9">
+      <c r="C363" s="3">
         <v>181.2</v>
       </c>
-      <c r="D363" s="9">
+      <c r="D363" s="3">
         <v>149.9</v>
       </c>
-      <c r="E363" s="9">
+      <c r="E363" s="3">
         <v>94.04</v>
       </c>
-      <c r="F363" s="9">
+      <c r="F363" s="3">
         <v>129.1</v>
       </c>
-      <c r="G363" s="9">
+      <c r="G363" s="3">
         <v>111</v>
       </c>
-      <c r="H363" s="9">
+      <c r="H363" s="3">
         <v>134.6</v>
       </c>
-      <c r="I363" s="9">
+      <c r="I363" s="3">
         <v>95.64</v>
       </c>
-      <c r="J363" s="9">
+      <c r="J363" s="3">
         <v>95.95</v>
       </c>
-      <c r="K363" s="9">
+      <c r="K363" s="3">
         <v>133.5</v>
       </c>
-      <c r="L363" s="9">
+      <c r="L363" s="3">
         <v>130.9</v>
       </c>
-      <c r="M363" s="9">
+      <c r="M363" s="3">
         <v>127.3</v>
       </c>
-      <c r="N363" s="9">
+      <c r="N363" s="3">
         <v>31.27</v>
       </c>
-      <c r="O363" s="9">
+      <c r="O363" s="3">
         <v>41.76</v>
       </c>
-      <c r="P363" s="9">
+      <c r="P363" s="3">
         <v>122.7</v>
       </c>
-      <c r="Q363" s="9">
+      <c r="Q363" s="3">
         <v>69.819999999999993</v>
       </c>
-      <c r="R363" s="9">
+      <c r="R363" s="3">
         <v>7.7910000000000004</v>
       </c>
-      <c r="S363" s="9">
+      <c r="S363" s="3">
         <v>13.12</v>
       </c>
-      <c r="T363" s="9">
+      <c r="T363" s="3">
         <v>18.63</v>
       </c>
-      <c r="U363" s="9">
+      <c r="U363" s="3">
         <v>14.54</v>
       </c>
-      <c r="V363" s="9">
+      <c r="V363" s="3">
         <v>7.2859999999999996</v>
       </c>
     </row>
-    <row r="364" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A364" s="8" t="s">
+    <row r="364" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A364" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C364" s="9">
+      <c r="C364" s="3">
         <v>516.6</v>
       </c>
-      <c r="D364" s="9">
+      <c r="D364" s="3">
         <v>420.4</v>
       </c>
-      <c r="E364" s="9">
+      <c r="E364" s="3">
         <v>285.2</v>
       </c>
-      <c r="F364" s="9">
+      <c r="F364" s="3">
         <v>396</v>
       </c>
-      <c r="G364" s="9">
+      <c r="G364" s="3">
         <v>393.8</v>
       </c>
-      <c r="H364" s="9">
+      <c r="H364" s="3">
         <v>467.7</v>
       </c>
-      <c r="I364" s="9">
+      <c r="I364" s="3">
         <v>291.8</v>
       </c>
-      <c r="J364" s="9">
+      <c r="J364" s="3">
         <v>365.3</v>
       </c>
-      <c r="K364" s="9">
+      <c r="K364" s="3">
         <v>405.1</v>
       </c>
-      <c r="L364" s="9">
+      <c r="L364" s="3">
         <v>414.7</v>
       </c>
-      <c r="M364" s="9">
+      <c r="M364" s="3">
         <v>383</v>
       </c>
-      <c r="N364" s="9">
+      <c r="N364" s="3">
         <v>155.4</v>
       </c>
-      <c r="O364" s="9">
+      <c r="O364" s="3">
         <v>133</v>
       </c>
-      <c r="P364" s="9">
+      <c r="P364" s="3">
         <v>343.5</v>
       </c>
-      <c r="Q364" s="9">
+      <c r="Q364" s="3">
         <v>129.6</v>
       </c>
-      <c r="R364" s="9">
+      <c r="R364" s="3">
         <v>19.05</v>
       </c>
-      <c r="S364" s="9">
+      <c r="S364" s="3">
         <v>20.66</v>
       </c>
-      <c r="T364" s="9">
+      <c r="T364" s="3">
         <v>36.409999999999997</v>
       </c>
-      <c r="U364" s="9">
+      <c r="U364" s="3">
         <v>35.97</v>
       </c>
-      <c r="V364" s="9">
+      <c r="V364" s="3">
         <v>31.69</v>
       </c>
     </row>
-    <row r="365" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A365" s="8" t="s">
+    <row r="365" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A365" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C365" s="9">
+      <c r="C365" s="3">
         <v>194.6</v>
       </c>
-      <c r="D365" s="9">
+      <c r="D365" s="3">
         <v>172.5</v>
       </c>
-      <c r="E365" s="9">
+      <c r="E365" s="3">
         <v>115.6</v>
       </c>
-      <c r="F365" s="9">
+      <c r="F365" s="3">
         <v>162.5</v>
       </c>
-      <c r="G365" s="9">
+      <c r="G365" s="3">
         <v>163.80000000000001</v>
       </c>
-      <c r="H365" s="9">
+      <c r="H365" s="3">
         <v>180.9</v>
       </c>
-      <c r="I365" s="9">
+      <c r="I365" s="3">
         <v>135.6</v>
       </c>
-      <c r="J365" s="9">
+      <c r="J365" s="3">
         <v>147.6</v>
       </c>
-      <c r="K365" s="9">
+      <c r="K365" s="3">
         <v>176.3</v>
       </c>
-      <c r="L365" s="9">
+      <c r="L365" s="3">
         <v>188.7</v>
       </c>
-      <c r="M365" s="9">
+      <c r="M365" s="3">
         <v>179.7</v>
       </c>
-      <c r="N365" s="9">
+      <c r="N365" s="3">
         <v>67.23</v>
       </c>
-      <c r="O365" s="9">
+      <c r="O365" s="3">
         <v>62.99</v>
       </c>
-      <c r="P365" s="9">
+      <c r="P365" s="3">
         <v>151</v>
       </c>
-      <c r="Q365" s="9">
+      <c r="Q365" s="3">
         <v>95.51</v>
       </c>
-      <c r="R365" s="9">
+      <c r="R365" s="3">
         <v>4.6760000000000002</v>
       </c>
-      <c r="S365" s="9">
+      <c r="S365" s="3">
         <v>8.4</v>
       </c>
-      <c r="T365" s="9">
+      <c r="T365" s="3">
         <v>10.44</v>
       </c>
-      <c r="U365" s="9">
+      <c r="U365" s="3">
         <v>8.4169999999999998</v>
       </c>
-      <c r="V365" s="9">
+      <c r="V365" s="3">
         <v>4.8760000000000003</v>
       </c>
     </row>
-    <row r="366" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A366" s="8" t="s">
+    <row r="366" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A366" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C366" s="9">
+      <c r="C366" s="3">
         <v>442.1</v>
       </c>
-      <c r="D366" s="9">
+      <c r="D366" s="3">
         <v>384.1</v>
       </c>
-      <c r="E366" s="9">
+      <c r="E366" s="3">
         <v>264.8</v>
       </c>
-      <c r="F366" s="9">
+      <c r="F366" s="3">
         <v>299.7</v>
       </c>
-      <c r="G366" s="9">
+      <c r="G366" s="3">
         <v>293.39999999999998</v>
       </c>
-      <c r="H366" s="9">
+      <c r="H366" s="3">
         <v>351.6</v>
       </c>
-      <c r="I366" s="9">
+      <c r="I366" s="3">
         <v>237.3</v>
       </c>
-      <c r="J366" s="9">
+      <c r="J366" s="3">
         <v>244.9</v>
       </c>
-      <c r="K366" s="9">
+      <c r="K366" s="3">
         <v>357</v>
       </c>
-      <c r="L366" s="9">
+      <c r="L366" s="3">
         <v>306.89999999999998</v>
       </c>
-      <c r="M366" s="9">
+      <c r="M366" s="3">
         <v>326.8</v>
       </c>
-      <c r="N366" s="9">
+      <c r="N366" s="3">
         <v>79.31</v>
       </c>
-      <c r="O366" s="9">
+      <c r="O366" s="3">
         <v>85.59</v>
       </c>
-      <c r="P366" s="9">
+      <c r="P366" s="3">
         <v>321.89999999999998</v>
       </c>
-      <c r="Q366" s="9">
+      <c r="Q366" s="3">
         <v>198.7</v>
       </c>
-      <c r="R366" s="9">
+      <c r="R366" s="3">
         <v>9.33</v>
       </c>
-      <c r="S366" s="9">
+      <c r="S366" s="3">
         <v>25.83</v>
       </c>
-      <c r="T366" s="9">
+      <c r="T366" s="3">
         <v>23.78</v>
       </c>
-      <c r="U366" s="9">
+      <c r="U366" s="3">
         <v>17.09</v>
       </c>
-      <c r="V366" s="9">
+      <c r="V366" s="3">
         <v>20.13</v>
       </c>
     </row>
-    <row r="367" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A367" s="8" t="s">
+    <row r="367" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A367" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C367" s="9">
+      <c r="C367" s="3">
         <v>845.9</v>
       </c>
-      <c r="D367" s="9">
+      <c r="D367" s="3">
         <v>692.3</v>
       </c>
-      <c r="E367" s="9">
+      <c r="E367" s="3">
         <v>487.5</v>
       </c>
-      <c r="F367" s="9">
+      <c r="F367" s="3">
         <v>500.2</v>
       </c>
-      <c r="G367" s="9">
+      <c r="G367" s="3">
         <v>463</v>
       </c>
-      <c r="H367" s="9">
+      <c r="H367" s="3">
         <v>595.20000000000005</v>
       </c>
-      <c r="I367" s="9">
+      <c r="I367" s="3">
         <v>419.8</v>
       </c>
-      <c r="J367" s="9">
+      <c r="J367" s="3">
         <v>476</v>
       </c>
-      <c r="K367" s="9">
+      <c r="K367" s="3">
         <v>740.6</v>
       </c>
-      <c r="L367" s="9">
+      <c r="L367" s="3">
         <v>660</v>
       </c>
-      <c r="M367" s="9">
+      <c r="M367" s="3">
         <v>676.5</v>
       </c>
-      <c r="N367" s="9">
+      <c r="N367" s="3">
         <v>176.1</v>
       </c>
-      <c r="O367" s="9">
+      <c r="O367" s="3">
         <v>168.7</v>
       </c>
-      <c r="P367" s="9">
+      <c r="P367" s="3">
         <v>604</v>
       </c>
-      <c r="Q367" s="9">
+      <c r="Q367" s="3">
         <v>259.10000000000002</v>
       </c>
-      <c r="R367" s="9">
+      <c r="R367" s="3">
         <v>33.479999999999997</v>
       </c>
-      <c r="S367" s="9">
+      <c r="S367" s="3">
         <v>42.14</v>
       </c>
-      <c r="T367" s="9">
+      <c r="T367" s="3">
         <v>62.5</v>
       </c>
-      <c r="U367" s="9">
+      <c r="U367" s="3">
         <v>56.72</v>
       </c>
-      <c r="V367" s="9">
+      <c r="V367" s="3">
         <v>27.38</v>
       </c>
     </row>
-    <row r="368" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A368" s="8" t="s">
+    <row r="368" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A368" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C368" s="9">
+      <c r="C368" s="3">
         <v>724.5</v>
       </c>
-      <c r="D368" s="9">
+      <c r="D368" s="3">
         <v>817.3</v>
       </c>
-      <c r="E368" s="9">
+      <c r="E368" s="3">
         <v>605.79999999999995</v>
       </c>
-      <c r="F368" s="9">
+      <c r="F368" s="3">
         <v>775.7</v>
       </c>
-      <c r="G368" s="9">
+      <c r="G368" s="3">
         <v>635.29999999999995</v>
       </c>
-      <c r="H368" s="9">
+      <c r="H368" s="3">
         <v>757.5</v>
       </c>
-      <c r="I368" s="9">
+      <c r="I368" s="3">
         <v>539.70000000000005</v>
       </c>
-      <c r="J368" s="9">
+      <c r="J368" s="3">
         <v>551</v>
       </c>
-      <c r="K368" s="9">
+      <c r="K368" s="3">
         <v>822.6</v>
       </c>
-      <c r="L368" s="9">
+      <c r="L368" s="3">
         <v>745.3</v>
       </c>
-      <c r="M368" s="9">
+      <c r="M368" s="3">
         <v>735</v>
       </c>
-      <c r="N368" s="9">
+      <c r="N368" s="3">
         <v>187.1</v>
       </c>
-      <c r="O368" s="9">
+      <c r="O368" s="3">
         <v>276.60000000000002</v>
       </c>
-      <c r="P368" s="9">
+      <c r="P368" s="3">
         <v>506.1</v>
       </c>
-      <c r="Q368" s="9">
+      <c r="Q368" s="3">
         <v>406.8</v>
       </c>
-      <c r="R368" s="9">
+      <c r="R368" s="3">
         <v>46.19</v>
       </c>
-      <c r="S368" s="9">
+      <c r="S368" s="3">
         <v>48.87</v>
       </c>
-      <c r="T368" s="9">
+      <c r="T368" s="3">
         <v>74.989999999999995</v>
       </c>
-      <c r="U368" s="9">
+      <c r="U368" s="3">
         <v>48.98</v>
       </c>
-      <c r="V368" s="9">
+      <c r="V368" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="369" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A369" s="8" t="s">
+    <row r="369" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A369" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C369" s="9">
+      <c r="C369" s="3">
         <v>910.7</v>
       </c>
-      <c r="D369" s="9">
+      <c r="D369" s="3">
         <v>840.2</v>
       </c>
-      <c r="E369" s="9">
+      <c r="E369" s="3">
         <v>545.20000000000005</v>
       </c>
-      <c r="F369" s="9">
+      <c r="F369" s="3">
         <v>666.8</v>
       </c>
-      <c r="G369" s="9">
+      <c r="G369" s="3">
         <v>555.79999999999995</v>
       </c>
-      <c r="H369" s="9">
+      <c r="H369" s="3">
         <v>747.2</v>
       </c>
-      <c r="I369" s="9">
+      <c r="I369" s="3">
         <v>497.6</v>
       </c>
-      <c r="J369" s="9">
+      <c r="J369" s="3">
         <v>356.9</v>
       </c>
-      <c r="K369" s="9">
+      <c r="K369" s="3">
         <v>779.2</v>
       </c>
-      <c r="L369" s="9">
+      <c r="L369" s="3">
         <v>639.70000000000005</v>
       </c>
-      <c r="M369" s="9">
+      <c r="M369" s="3">
         <v>644.29999999999995</v>
       </c>
-      <c r="N369" s="9">
+      <c r="N369" s="3">
         <v>68.87</v>
       </c>
-      <c r="O369" s="9">
+      <c r="O369" s="3">
         <v>130.6</v>
       </c>
-      <c r="P369" s="9">
+      <c r="P369" s="3">
         <v>539.79999999999995</v>
       </c>
-      <c r="Q369" s="9">
+      <c r="Q369" s="3">
         <v>429.2</v>
       </c>
-      <c r="R369" s="9">
+      <c r="R369" s="3">
         <v>60.95</v>
       </c>
-      <c r="S369" s="9">
+      <c r="S369" s="3">
         <v>84.41</v>
       </c>
-      <c r="T369" s="9">
+      <c r="T369" s="3">
         <v>89.47</v>
       </c>
-      <c r="U369" s="9">
+      <c r="U369" s="3">
         <v>77.98</v>
       </c>
-      <c r="V369" s="9">
+      <c r="V369" s="3">
         <v>47.1</v>
       </c>
     </row>
-    <row r="370" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A370" s="8" t="s">
+    <row r="370" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A370" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C370" s="9">
+      <c r="C370" s="3">
         <v>1.26</v>
       </c>
-      <c r="D370" s="9">
+      <c r="D370" s="3">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E370" s="9">
+      <c r="E370" s="3">
         <v>1.93</v>
       </c>
-      <c r="F370" s="9">
+      <c r="F370" s="3">
         <v>5.1970000000000001</v>
       </c>
-      <c r="G370" s="9">
+      <c r="G370" s="3">
         <v>1</v>
       </c>
-      <c r="H370" s="9">
+      <c r="H370" s="3">
         <v>11.15</v>
       </c>
-      <c r="I370" s="9">
+      <c r="I370" s="3">
         <v>1.976</v>
       </c>
-      <c r="J370" s="9">
+      <c r="J370" s="3">
         <v>1</v>
       </c>
-      <c r="K370" s="9">
+      <c r="K370" s="3">
         <v>2.69</v>
       </c>
-      <c r="L370" s="9">
+      <c r="L370" s="3">
         <v>3.1230000000000002</v>
       </c>
-      <c r="M370" s="9">
+      <c r="M370" s="3">
         <v>1.032</v>
       </c>
-      <c r="N370" s="9">
+      <c r="N370" s="3">
         <v>1</v>
       </c>
-      <c r="O370" s="9">
+      <c r="O370" s="3">
         <v>2.1379999999999999</v>
       </c>
-      <c r="P370" s="9">
+      <c r="P370" s="3">
         <v>55.71</v>
       </c>
-      <c r="Q370" s="9">
+      <c r="Q370" s="3">
         <v>3.1070000000000002</v>
       </c>
-      <c r="R370" s="9">
+      <c r="R370" s="3">
         <v>1.032</v>
       </c>
-      <c r="S370" s="9">
+      <c r="S370" s="3">
         <v>2.6110000000000002</v>
       </c>
-      <c r="T370" s="9">
+      <c r="T370" s="3">
         <v>1.304</v>
       </c>
-      <c r="U370" s="9">
+      <c r="U370" s="3">
         <v>1</v>
       </c>
-      <c r="V370" s="9">
+      <c r="V370" s="3">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A371" s="8" t="s">
+    <row r="371" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A371" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C371" s="9">
+      <c r="C371" s="3">
         <v>114.6</v>
       </c>
-      <c r="D371" s="9">
+      <c r="D371" s="3">
         <v>108.4</v>
       </c>
-      <c r="E371" s="9">
+      <c r="E371" s="3">
         <v>94.84</v>
       </c>
-      <c r="F371" s="9">
+      <c r="F371" s="3">
         <v>144</v>
       </c>
-      <c r="G371" s="9">
+      <c r="G371" s="3">
         <v>68.2</v>
       </c>
-      <c r="H371" s="9">
+      <c r="H371" s="3">
         <v>85.3</v>
       </c>
-      <c r="I371" s="9">
+      <c r="I371" s="3">
         <v>90.43</v>
       </c>
-      <c r="J371" s="9">
+      <c r="J371" s="3">
         <v>60.89</v>
       </c>
-      <c r="K371" s="9">
+      <c r="K371" s="3">
         <v>137.1</v>
       </c>
-      <c r="L371" s="9">
+      <c r="L371" s="3">
         <v>119.3</v>
       </c>
-      <c r="M371" s="9">
+      <c r="M371" s="3">
         <v>95.03</v>
       </c>
-      <c r="N371" s="9">
+      <c r="N371" s="3">
         <v>12.46</v>
       </c>
-      <c r="O371" s="9">
+      <c r="O371" s="3">
         <v>26.43</v>
       </c>
-      <c r="P371" s="9">
+      <c r="P371" s="3">
         <v>116.8</v>
       </c>
-      <c r="Q371" s="9">
+      <c r="Q371" s="3">
         <v>43.45</v>
       </c>
-      <c r="R371" s="9">
+      <c r="R371" s="3">
         <v>4.93</v>
       </c>
-      <c r="S371" s="9">
+      <c r="S371" s="3">
         <v>9.7639999999999993</v>
       </c>
-      <c r="T371" s="9">
+      <c r="T371" s="3">
         <v>9.2100000000000009</v>
       </c>
-      <c r="U371" s="9">
+      <c r="U371" s="3">
         <v>5.89</v>
       </c>
-      <c r="V371" s="9">
+      <c r="V371" s="3">
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A372" s="8" t="s">
+    <row r="372" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A372" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C372" s="9">
+      <c r="C372" s="3">
         <v>151.30000000000001</v>
       </c>
-      <c r="D372" s="9">
+      <c r="D372" s="3">
         <v>141.5</v>
       </c>
-      <c r="E372" s="9">
+      <c r="E372" s="3">
         <v>101</v>
       </c>
-      <c r="F372" s="9">
+      <c r="F372" s="3">
         <v>117.7</v>
       </c>
-      <c r="G372" s="9">
+      <c r="G372" s="3">
         <v>127.3</v>
       </c>
-      <c r="H372" s="9">
+      <c r="H372" s="3">
         <v>146.9</v>
       </c>
-      <c r="I372" s="9">
+      <c r="I372" s="3">
         <v>99.99</v>
       </c>
-      <c r="J372" s="9">
+      <c r="J372" s="3">
         <v>87.32</v>
       </c>
-      <c r="K372" s="9">
+      <c r="K372" s="3">
         <v>160</v>
       </c>
-      <c r="L372" s="9">
+      <c r="L372" s="3">
         <v>143.19999999999999</v>
       </c>
-      <c r="M372" s="9">
+      <c r="M372" s="3">
         <v>153.30000000000001</v>
       </c>
-      <c r="N372" s="9">
+      <c r="N372" s="3">
         <v>24.96</v>
       </c>
-      <c r="O372" s="9">
+      <c r="O372" s="3">
         <v>38.29</v>
       </c>
-      <c r="P372" s="9">
+      <c r="P372" s="3">
         <v>145.30000000000001</v>
       </c>
-      <c r="Q372" s="9">
+      <c r="Q372" s="3">
         <v>62.25</v>
       </c>
-      <c r="R372" s="9">
+      <c r="R372" s="3">
         <v>5.43</v>
       </c>
-      <c r="S372" s="9">
+      <c r="S372" s="3">
         <v>8.6010000000000009</v>
       </c>
-      <c r="T372" s="9">
+      <c r="T372" s="3">
         <v>11.46</v>
       </c>
-      <c r="U372" s="9">
+      <c r="U372" s="3">
         <v>7.5540000000000003</v>
       </c>
-      <c r="V372" s="9">
+      <c r="V372" s="3">
         <v>3.5259999999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A373" s="8" t="s">
+    <row r="373" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A373" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C373" s="9">
+      <c r="C373" s="3">
         <v>316.3</v>
       </c>
-      <c r="D373" s="9">
+      <c r="D373" s="3">
         <v>284.89999999999998</v>
       </c>
-      <c r="E373" s="9">
+      <c r="E373" s="3">
         <v>214.2</v>
       </c>
-      <c r="F373" s="9">
+      <c r="F373" s="3">
         <v>253.7</v>
       </c>
-      <c r="G373" s="9">
+      <c r="G373" s="3">
         <v>201.9</v>
       </c>
-      <c r="H373" s="9">
+      <c r="H373" s="3">
         <v>252.9</v>
       </c>
-      <c r="I373" s="9">
+      <c r="I373" s="3">
         <v>189</v>
       </c>
-      <c r="J373" s="9">
+      <c r="J373" s="3">
         <v>161.6</v>
       </c>
-      <c r="K373" s="9">
+      <c r="K373" s="3">
         <v>286.7</v>
       </c>
-      <c r="L373" s="9">
+      <c r="L373" s="3">
         <v>238.7</v>
       </c>
-      <c r="M373" s="9">
+      <c r="M373" s="3">
         <v>261.2</v>
       </c>
-      <c r="N373" s="9">
+      <c r="N373" s="3">
         <v>37.549999999999997</v>
       </c>
-      <c r="O373" s="9">
+      <c r="O373" s="3">
         <v>70.040000000000006</v>
       </c>
-      <c r="P373" s="9">
+      <c r="P373" s="3">
         <v>233.8</v>
       </c>
-      <c r="Q373" s="9">
+      <c r="Q373" s="3">
         <v>136.69999999999999</v>
       </c>
-      <c r="R373" s="9">
+      <c r="R373" s="3">
         <v>6.1980000000000004</v>
       </c>
-      <c r="S373" s="9">
+      <c r="S373" s="3">
         <v>16.41</v>
       </c>
-      <c r="T373" s="9">
+      <c r="T373" s="3">
         <v>19.05</v>
       </c>
-      <c r="U373" s="9">
+      <c r="U373" s="3">
         <v>8.67</v>
       </c>
-      <c r="V373" s="9">
+      <c r="V373" s="3">
         <v>14.22</v>
       </c>
     </row>
-    <row r="374" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A374" s="8" t="s">
+    <row r="374" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A374" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C374" s="9">
+      <c r="C374" s="3">
         <v>353.9</v>
       </c>
-      <c r="D374" s="9">
+      <c r="D374" s="3">
         <v>315.3</v>
       </c>
-      <c r="E374" s="9">
+      <c r="E374" s="3">
         <v>229.7</v>
       </c>
-      <c r="F374" s="9">
+      <c r="F374" s="3">
         <v>260.3</v>
       </c>
-      <c r="G374" s="9">
+      <c r="G374" s="3">
         <v>271</v>
       </c>
-      <c r="H374" s="9">
+      <c r="H374" s="3">
         <v>305.10000000000002</v>
       </c>
-      <c r="I374" s="9">
+      <c r="I374" s="3">
         <v>204.8</v>
       </c>
-      <c r="J374" s="9">
+      <c r="J374" s="3">
         <v>189.3</v>
       </c>
-      <c r="K374" s="9">
+      <c r="K374" s="3">
         <v>320.5</v>
       </c>
-      <c r="L374" s="9">
+      <c r="L374" s="3">
         <v>311.7</v>
       </c>
-      <c r="M374" s="9">
+      <c r="M374" s="3">
         <v>317.60000000000002</v>
       </c>
-      <c r="N374" s="9">
+      <c r="N374" s="3">
         <v>60.6</v>
       </c>
-      <c r="O374" s="9">
+      <c r="O374" s="3">
         <v>100.4</v>
       </c>
-      <c r="P374" s="9">
+      <c r="P374" s="3">
         <v>222.5</v>
       </c>
-      <c r="Q374" s="9">
+      <c r="Q374" s="3">
         <v>174.9</v>
       </c>
-      <c r="R374" s="9">
+      <c r="R374" s="3">
         <v>10.66</v>
       </c>
-      <c r="S374" s="9">
+      <c r="S374" s="3">
         <v>21.33</v>
       </c>
-      <c r="T374" s="9">
+      <c r="T374" s="3">
         <v>21.91</v>
       </c>
-      <c r="U374" s="9">
+      <c r="U374" s="3">
         <v>15.01</v>
       </c>
-      <c r="V374" s="9">
+      <c r="V374" s="3">
         <v>10.49</v>
       </c>
     </row>
-    <row r="375" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A375" s="8" t="s">
+    <row r="375" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A375" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C375" s="9">
+      <c r="C375" s="3">
         <v>531.29999999999995</v>
       </c>
-      <c r="D375" s="9">
+      <c r="D375" s="3">
         <v>462.1</v>
       </c>
-      <c r="E375" s="9">
+      <c r="E375" s="3">
         <v>391.7</v>
       </c>
-      <c r="F375" s="9">
+      <c r="F375" s="3">
         <v>501.4</v>
       </c>
-      <c r="G375" s="9">
+      <c r="G375" s="3">
         <v>333.1</v>
       </c>
-      <c r="H375" s="9">
+      <c r="H375" s="3">
         <v>410.1</v>
       </c>
-      <c r="I375" s="9">
+      <c r="I375" s="3">
         <v>365.6</v>
       </c>
-      <c r="J375" s="9">
+      <c r="J375" s="3">
         <v>278.3</v>
       </c>
-      <c r="K375" s="9">
+      <c r="K375" s="3">
         <v>518.79999999999995</v>
       </c>
-      <c r="L375" s="9">
+      <c r="L375" s="3">
         <v>499.4</v>
       </c>
-      <c r="M375" s="9">
+      <c r="M375" s="3">
         <v>438.9</v>
       </c>
-      <c r="N375" s="9">
+      <c r="N375" s="3">
         <v>103.1</v>
       </c>
-      <c r="O375" s="9">
+      <c r="O375" s="3">
         <v>175.3</v>
       </c>
-      <c r="P375" s="9">
+      <c r="P375" s="3">
         <v>351.1</v>
       </c>
-      <c r="Q375" s="9">
+      <c r="Q375" s="3">
         <v>253.1</v>
       </c>
-      <c r="R375" s="9">
+      <c r="R375" s="3">
         <v>27.32</v>
       </c>
-      <c r="S375" s="9">
+      <c r="S375" s="3">
         <v>50.95</v>
       </c>
-      <c r="T375" s="9">
+      <c r="T375" s="3">
         <v>51.91</v>
       </c>
-      <c r="U375" s="9">
+      <c r="U375" s="3">
         <v>43.94</v>
       </c>
-      <c r="V375" s="9">
+      <c r="V375" s="3">
         <v>31.42</v>
       </c>
     </row>
-    <row r="376" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A376" s="8" t="s">
+    <row r="376" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A376" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C376" s="9">
+      <c r="C376" s="3">
         <v>1659</v>
       </c>
-      <c r="D376" s="9">
+      <c r="D376" s="3">
         <v>1566</v>
       </c>
-      <c r="E376" s="9">
+      <c r="E376" s="3">
         <v>1073</v>
       </c>
-      <c r="F376" s="9">
+      <c r="F376" s="3">
         <v>1102</v>
       </c>
-      <c r="G376" s="9">
+      <c r="G376" s="3">
         <v>1560</v>
       </c>
-      <c r="H376" s="9">
+      <c r="H376" s="3">
         <v>1518</v>
       </c>
-      <c r="I376" s="9">
+      <c r="I376" s="3">
         <v>1095</v>
       </c>
-      <c r="J376" s="9">
+      <c r="J376" s="3">
         <v>828.6</v>
       </c>
-      <c r="K376" s="9">
+      <c r="K376" s="3">
         <v>1106</v>
       </c>
-      <c r="L376" s="9">
+      <c r="L376" s="3">
         <v>955.7</v>
       </c>
-      <c r="M376" s="9">
+      <c r="M376" s="3">
         <v>960.4</v>
       </c>
-      <c r="N376" s="9">
+      <c r="N376" s="3">
         <v>283.8</v>
       </c>
-      <c r="O376" s="9">
+      <c r="O376" s="3">
         <v>566</v>
       </c>
-      <c r="P376" s="9">
+      <c r="P376" s="3">
         <v>624.5</v>
       </c>
-      <c r="Q376" s="9">
+      <c r="Q376" s="3">
         <v>407</v>
       </c>
-      <c r="R376" s="9">
+      <c r="R376" s="3">
         <v>47.93</v>
       </c>
-      <c r="S376" s="9">
+      <c r="S376" s="3">
         <v>86.45</v>
       </c>
-      <c r="T376" s="9">
+      <c r="T376" s="3">
         <v>103.8</v>
       </c>
-      <c r="U376" s="9">
+      <c r="U376" s="3">
         <v>55.93</v>
       </c>
-      <c r="V376" s="9">
+      <c r="V376" s="3">
         <v>85.17</v>
       </c>
     </row>
-    <row r="377" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A377" s="8" t="s">
+    <row r="377" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A377" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C377" s="9">
+      <c r="C377" s="3">
         <v>236.1</v>
       </c>
-      <c r="D377" s="9">
+      <c r="D377" s="3">
         <v>195.5</v>
       </c>
-      <c r="E377" s="9">
+      <c r="E377" s="3">
         <v>142.30000000000001</v>
       </c>
-      <c r="F377" s="9">
+      <c r="F377" s="3">
         <v>167.3</v>
       </c>
-      <c r="G377" s="9">
+      <c r="G377" s="3">
         <v>106.1</v>
       </c>
-      <c r="H377" s="9">
+      <c r="H377" s="3">
         <v>134.4</v>
       </c>
-      <c r="I377" s="9">
+      <c r="I377" s="3">
         <v>116.1</v>
       </c>
-      <c r="J377" s="9">
+      <c r="J377" s="3">
         <v>90.25</v>
       </c>
-      <c r="K377" s="9">
+      <c r="K377" s="3">
         <v>194.3</v>
       </c>
-      <c r="L377" s="9">
+      <c r="L377" s="3">
         <v>143.9</v>
       </c>
-      <c r="M377" s="9">
+      <c r="M377" s="3">
         <v>148.6</v>
       </c>
-      <c r="N377" s="9">
+      <c r="N377" s="3">
         <v>12.11</v>
       </c>
-      <c r="O377" s="9">
+      <c r="O377" s="3">
         <v>29.06</v>
       </c>
-      <c r="P377" s="9">
+      <c r="P377" s="3">
         <v>162.30000000000001</v>
       </c>
-      <c r="Q377" s="9">
+      <c r="Q377" s="3">
         <v>56.52</v>
       </c>
-      <c r="R377" s="9">
+      <c r="R377" s="3">
         <v>13.7</v>
       </c>
-      <c r="S377" s="9">
+      <c r="S377" s="3">
         <v>19.91</v>
       </c>
-      <c r="T377" s="9">
+      <c r="T377" s="3">
         <v>18.38</v>
       </c>
-      <c r="U377" s="9">
+      <c r="U377" s="3">
         <v>16.05</v>
       </c>
-      <c r="V377" s="9">
+      <c r="V377" s="3">
         <v>8.4619999999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A378" s="8" t="s">
+    <row r="378" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A378" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C378" s="9">
+      <c r="C378" s="3">
         <v>376.7</v>
       </c>
-      <c r="D378" s="9">
+      <c r="D378" s="3">
         <v>336.8</v>
       </c>
-      <c r="E378" s="9">
+      <c r="E378" s="3">
         <v>222.8</v>
       </c>
-      <c r="F378" s="9">
+      <c r="F378" s="3">
         <v>288.5</v>
       </c>
-      <c r="G378" s="9">
+      <c r="G378" s="3">
         <v>297.8</v>
       </c>
-      <c r="H378" s="9">
+      <c r="H378" s="3">
         <v>335.9</v>
       </c>
-      <c r="I378" s="9">
+      <c r="I378" s="3">
         <v>232.8</v>
       </c>
-      <c r="J378" s="9">
+      <c r="J378" s="3">
         <v>234.9</v>
       </c>
-      <c r="K378" s="9">
+      <c r="K378" s="3">
         <v>327.39999999999998</v>
       </c>
-      <c r="L378" s="9">
+      <c r="L378" s="3">
         <v>298.3</v>
       </c>
-      <c r="M378" s="9">
+      <c r="M378" s="3">
         <v>328.5</v>
       </c>
-      <c r="N378" s="9">
+      <c r="N378" s="3">
         <v>72.86</v>
       </c>
-      <c r="O378" s="9">
+      <c r="O378" s="3">
         <v>109.5</v>
       </c>
-      <c r="P378" s="9">
+      <c r="P378" s="3">
         <v>223.1</v>
       </c>
-      <c r="Q378" s="9">
+      <c r="Q378" s="3">
         <v>183.5</v>
       </c>
-      <c r="R378" s="9">
+      <c r="R378" s="3">
         <v>32.96</v>
       </c>
-      <c r="S378" s="9">
+      <c r="S378" s="3">
         <v>57.01</v>
       </c>
-      <c r="T378" s="9">
+      <c r="T378" s="3">
         <v>57.42</v>
       </c>
-      <c r="U378" s="9">
+      <c r="U378" s="3">
         <v>44.1</v>
       </c>
-      <c r="V378" s="9">
+      <c r="V378" s="3">
         <v>30.21</v>
       </c>
     </row>
-    <row r="379" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A379" s="8" t="s">
+    <row r="379" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A379" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C379" s="9">
+      <c r="C379" s="3">
         <v>667</v>
       </c>
-      <c r="D379" s="9">
+      <c r="D379" s="3">
         <v>644</v>
       </c>
-      <c r="E379" s="9">
+      <c r="E379" s="3">
         <v>471.5</v>
       </c>
-      <c r="F379" s="9">
+      <c r="F379" s="3">
         <v>611.29999999999995</v>
       </c>
-      <c r="G379" s="9">
+      <c r="G379" s="3">
         <v>530</v>
       </c>
-      <c r="H379" s="9">
+      <c r="H379" s="3">
         <v>676.4</v>
       </c>
-      <c r="I379" s="9">
+      <c r="I379" s="3">
         <v>475.4</v>
       </c>
-      <c r="J379" s="9">
+      <c r="J379" s="3">
         <v>479.6</v>
       </c>
-      <c r="K379" s="9">
+      <c r="K379" s="3">
         <v>667.1</v>
       </c>
-      <c r="L379" s="9">
+      <c r="L379" s="3">
         <v>497.6</v>
       </c>
-      <c r="M379" s="9">
+      <c r="M379" s="3">
         <v>534.9</v>
       </c>
-      <c r="N379" s="9">
+      <c r="N379" s="3">
         <v>121.8</v>
       </c>
-      <c r="O379" s="9">
+      <c r="O379" s="3">
         <v>211.5</v>
       </c>
-      <c r="P379" s="9">
+      <c r="P379" s="3">
         <v>457.6</v>
       </c>
-      <c r="Q379" s="9">
+      <c r="Q379" s="3">
         <v>282.39999999999998</v>
       </c>
-      <c r="R379" s="9">
+      <c r="R379" s="3">
         <v>65.7</v>
       </c>
-      <c r="S379" s="9">
+      <c r="S379" s="3">
         <v>83.2</v>
       </c>
-      <c r="T379" s="9">
+      <c r="T379" s="3">
         <v>115.9</v>
       </c>
-      <c r="U379" s="9">
+      <c r="U379" s="3">
         <v>93.78</v>
       </c>
-      <c r="V379" s="9">
+      <c r="V379" s="3">
         <v>57.87</v>
       </c>
     </row>
-    <row r="380" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A380" s="8" t="s">
+    <row r="380" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A380" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C380" s="9">
+      <c r="C380" s="3">
         <v>81.87</v>
       </c>
-      <c r="D380" s="9">
+      <c r="D380" s="3">
         <v>71.77</v>
       </c>
-      <c r="E380" s="9">
+      <c r="E380" s="3">
         <v>56.82</v>
       </c>
-      <c r="F380" s="9">
+      <c r="F380" s="3">
         <v>54.64</v>
       </c>
-      <c r="G380" s="9">
+      <c r="G380" s="3">
         <v>33.58</v>
       </c>
-      <c r="H380" s="9">
+      <c r="H380" s="3">
         <v>43.45</v>
       </c>
-      <c r="I380" s="9">
+      <c r="I380" s="3">
         <v>55.13</v>
       </c>
-      <c r="J380" s="9">
+      <c r="J380" s="3">
         <v>29.54</v>
       </c>
-      <c r="K380" s="9">
+      <c r="K380" s="3">
         <v>78.150000000000006</v>
       </c>
-      <c r="L380" s="9">
+      <c r="L380" s="3">
         <v>82.34</v>
       </c>
-      <c r="M380" s="9">
+      <c r="M380" s="3">
         <v>67.73</v>
       </c>
-      <c r="N380" s="9">
+      <c r="N380" s="3">
         <v>6.0620000000000003</v>
       </c>
-      <c r="O380" s="9">
+      <c r="O380" s="3">
         <v>18.63</v>
       </c>
-      <c r="P380" s="9">
+      <c r="P380" s="3">
         <v>76.45</v>
       </c>
-      <c r="Q380" s="9">
+      <c r="Q380" s="3">
         <v>19.62</v>
       </c>
-      <c r="R380" s="9">
+      <c r="R380" s="3">
         <v>1</v>
       </c>
-      <c r="S380" s="9">
+      <c r="S380" s="3">
         <v>1.6060000000000001</v>
       </c>
-      <c r="T380" s="9">
+      <c r="T380" s="3">
         <v>1.776</v>
       </c>
-      <c r="U380" s="9">
+      <c r="U380" s="3">
         <v>1.883</v>
       </c>
-      <c r="V380" s="9">
+      <c r="V380" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A381" s="8" t="s">
+    <row r="381" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A381" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C381" s="9">
+      <c r="C381" s="3">
         <v>3.7570000000000001</v>
       </c>
-      <c r="D381" s="9">
+      <c r="D381" s="3">
         <v>3.3149999999999999</v>
       </c>
-      <c r="E381" s="9">
+      <c r="E381" s="3">
         <v>2.9159999999999999</v>
       </c>
-      <c r="F381" s="9">
+      <c r="F381" s="3">
         <v>2.198</v>
       </c>
-      <c r="G381" s="9">
+      <c r="G381" s="3">
         <v>2.6589999999999998</v>
       </c>
-      <c r="H381" s="9">
+      <c r="H381" s="3">
         <v>10.81</v>
       </c>
-      <c r="I381" s="9">
+      <c r="I381" s="3">
         <v>3.927</v>
       </c>
-      <c r="J381" s="9">
+      <c r="J381" s="3">
         <v>1.411</v>
       </c>
-      <c r="K381" s="9">
+      <c r="K381" s="3">
         <v>3.5310000000000001</v>
       </c>
-      <c r="L381" s="9">
+      <c r="L381" s="3">
         <v>3.4159999999999999</v>
       </c>
-      <c r="M381" s="9">
+      <c r="M381" s="3">
         <v>3.88</v>
       </c>
-      <c r="N381" s="9">
+      <c r="N381" s="3">
         <v>17.45</v>
       </c>
-      <c r="O381" s="9">
+      <c r="O381" s="3">
         <v>11.23</v>
       </c>
-      <c r="P381" s="9">
+      <c r="P381" s="3">
         <v>47.83</v>
       </c>
-      <c r="Q381" s="9">
+      <c r="Q381" s="3">
         <v>4.718</v>
       </c>
-      <c r="R381" s="9">
+      <c r="R381" s="3">
         <v>1</v>
       </c>
-      <c r="S381" s="9">
+      <c r="S381" s="3">
         <v>5.4820000000000002</v>
       </c>
-      <c r="T381" s="9">
+      <c r="T381" s="3">
         <v>2.8919999999999999</v>
       </c>
-      <c r="U381" s="9">
+      <c r="U381" s="3">
         <v>2.8330000000000002</v>
       </c>
-      <c r="V381" s="9">
+      <c r="V381" s="3">
         <v>1.2709999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A382" s="8" t="s">
+    <row r="382" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A382" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C382" s="9">
+      <c r="C382" s="3">
         <v>4.774</v>
       </c>
-      <c r="D382" s="9">
+      <c r="D382" s="3">
         <v>5.1289999999999996</v>
       </c>
-      <c r="E382" s="9">
+      <c r="E382" s="3">
         <v>4.282</v>
       </c>
-      <c r="F382" s="9">
+      <c r="F382" s="3">
         <v>3.1</v>
       </c>
-      <c r="G382" s="9">
+      <c r="G382" s="3">
         <v>4.1950000000000003</v>
       </c>
-      <c r="H382" s="9">
+      <c r="H382" s="3">
         <v>14.34</v>
       </c>
-      <c r="I382" s="9">
+      <c r="I382" s="3">
         <v>3.2290000000000001</v>
       </c>
-      <c r="J382" s="9">
+      <c r="J382" s="3">
         <v>1</v>
       </c>
-      <c r="K382" s="9">
+      <c r="K382" s="3">
         <v>4.5970000000000004</v>
       </c>
-      <c r="L382" s="9">
+      <c r="L382" s="3">
         <v>4.4909999999999997</v>
       </c>
-      <c r="M382" s="9">
+      <c r="M382" s="3">
         <v>4.4409999999999998</v>
       </c>
-      <c r="N382" s="9">
+      <c r="N382" s="3">
         <v>20.65</v>
       </c>
-      <c r="O382" s="9">
+      <c r="O382" s="3">
         <v>8.2159999999999993</v>
       </c>
-      <c r="P382" s="9">
+      <c r="P382" s="3">
         <v>71.319999999999993</v>
       </c>
-      <c r="Q382" s="9">
+      <c r="Q382" s="3">
         <v>4.3</v>
       </c>
-      <c r="R382" s="9">
+      <c r="R382" s="3">
         <v>5.1719999999999997</v>
       </c>
-      <c r="S382" s="9">
+      <c r="S382" s="3">
         <v>7.407</v>
       </c>
-      <c r="T382" s="9">
+      <c r="T382" s="3">
         <v>3.5019999999999998</v>
       </c>
-      <c r="U382" s="9">
+      <c r="U382" s="3">
         <v>3.6280000000000001</v>
       </c>
-      <c r="V382" s="9">
+      <c r="V382" s="3">
         <v>6.0140000000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A383" s="8" t="s">
+    <row r="383" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A383" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C383" s="9">
+      <c r="C383" s="3">
         <v>1070</v>
       </c>
-      <c r="D383" s="9">
+      <c r="D383" s="3">
         <v>1006</v>
       </c>
-      <c r="E383" s="9">
+      <c r="E383" s="3">
         <v>762.2</v>
       </c>
-      <c r="F383" s="9">
+      <c r="F383" s="3">
         <v>1110</v>
       </c>
-      <c r="G383" s="9">
+      <c r="G383" s="3">
         <v>1015</v>
       </c>
-      <c r="H383" s="9">
+      <c r="H383" s="3">
         <v>1109</v>
       </c>
-      <c r="I383" s="9">
+      <c r="I383" s="3">
         <v>797.2</v>
       </c>
-      <c r="J383" s="9">
+      <c r="J383" s="3">
         <v>734.4</v>
       </c>
-      <c r="K383" s="9">
+      <c r="K383" s="3">
         <v>897.6</v>
       </c>
-      <c r="L383" s="9">
+      <c r="L383" s="3">
         <v>858.5</v>
       </c>
-      <c r="M383" s="9">
+      <c r="M383" s="3">
         <v>842</v>
       </c>
-      <c r="N383" s="9">
+      <c r="N383" s="3">
         <v>289.8</v>
       </c>
-      <c r="O383" s="9">
+      <c r="O383" s="3">
         <v>379.1</v>
       </c>
-      <c r="P383" s="9">
+      <c r="P383" s="3">
         <v>497.5</v>
       </c>
-      <c r="Q383" s="9">
+      <c r="Q383" s="3">
         <v>318.7</v>
       </c>
-      <c r="R383" s="9">
+      <c r="R383" s="3">
         <v>30.62</v>
       </c>
-      <c r="S383" s="9">
+      <c r="S383" s="3">
         <v>48.69</v>
       </c>
-      <c r="T383" s="9">
+      <c r="T383" s="3">
         <v>73.67</v>
       </c>
-      <c r="U383" s="9">
+      <c r="U383" s="3">
         <v>37.770000000000003</v>
       </c>
-      <c r="V383" s="9">
+      <c r="V383" s="3">
         <v>38.47</v>
       </c>
     </row>
-    <row r="384" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A384" s="8" t="s">
+    <row r="384" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A384" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C384" s="9">
+      <c r="C384" s="3">
         <v>565.70000000000005</v>
       </c>
-      <c r="D384" s="9">
+      <c r="D384" s="3">
         <v>453.2</v>
       </c>
-      <c r="E384" s="9">
+      <c r="E384" s="3">
         <v>369.9</v>
       </c>
-      <c r="F384" s="9">
+      <c r="F384" s="3">
         <v>475.2</v>
       </c>
-      <c r="G384" s="9">
+      <c r="G384" s="3">
         <v>415.8</v>
       </c>
-      <c r="H384" s="9">
+      <c r="H384" s="3">
         <v>431.6</v>
       </c>
-      <c r="I384" s="9">
+      <c r="I384" s="3">
         <v>370.5</v>
       </c>
-      <c r="J384" s="9">
+      <c r="J384" s="3">
         <v>439.9</v>
       </c>
-      <c r="K384" s="9">
+      <c r="K384" s="3">
         <v>487.2</v>
       </c>
-      <c r="L384" s="9">
+      <c r="L384" s="3">
         <v>497.7</v>
       </c>
-      <c r="M384" s="9">
+      <c r="M384" s="3">
         <v>485.8</v>
       </c>
-      <c r="N384" s="9">
+      <c r="N384" s="3">
         <v>164.9</v>
       </c>
-      <c r="O384" s="9">
+      <c r="O384" s="3">
         <v>199.6</v>
       </c>
-      <c r="P384" s="9">
+      <c r="P384" s="3">
         <v>447.5</v>
       </c>
-      <c r="Q384" s="9">
+      <c r="Q384" s="3">
         <v>288.39999999999998</v>
       </c>
-      <c r="R384" s="9">
+      <c r="R384" s="3">
         <v>35.26</v>
       </c>
-      <c r="S384" s="9">
+      <c r="S384" s="3">
         <v>47.13</v>
       </c>
-      <c r="T384" s="9">
+      <c r="T384" s="3">
         <v>62.94</v>
       </c>
-      <c r="U384" s="9">
+      <c r="U384" s="3">
         <v>51.01</v>
       </c>
-      <c r="V384" s="9">
+      <c r="V384" s="3">
         <v>30.29</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A385" s="8" t="s">
+    <row r="385" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A385" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C385" s="9">
+      <c r="C385" s="3">
         <v>339.6</v>
       </c>
-      <c r="D385" s="9">
+      <c r="D385" s="3">
         <v>314.2</v>
       </c>
-      <c r="E385" s="9">
+      <c r="E385" s="3">
         <v>228.3</v>
       </c>
-      <c r="F385" s="9">
+      <c r="F385" s="3">
         <v>294.3</v>
       </c>
-      <c r="G385" s="9">
+      <c r="G385" s="3">
         <v>275.10000000000002</v>
       </c>
-      <c r="H385" s="9">
+      <c r="H385" s="3">
         <v>300.7</v>
       </c>
-      <c r="I385" s="9">
+      <c r="I385" s="3">
         <v>222.8</v>
       </c>
-      <c r="J385" s="9">
+      <c r="J385" s="3">
         <v>218.2</v>
       </c>
-      <c r="K385" s="9">
+      <c r="K385" s="3">
         <v>357.4</v>
       </c>
-      <c r="L385" s="9">
+      <c r="L385" s="3">
         <v>307.3</v>
       </c>
-      <c r="M385" s="9">
+      <c r="M385" s="3">
         <v>315.3</v>
       </c>
-      <c r="N385" s="9">
+      <c r="N385" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="O385" s="9">
+      <c r="O385" s="3">
         <v>113.7</v>
       </c>
-      <c r="P385" s="9">
+      <c r="P385" s="3">
         <v>275.10000000000002</v>
       </c>
-      <c r="Q385" s="9">
+      <c r="Q385" s="3">
         <v>184.4</v>
       </c>
-      <c r="R385" s="9">
+      <c r="R385" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="S385" s="9">
+      <c r="S385" s="3">
         <v>19.13</v>
       </c>
-      <c r="T385" s="9">
+      <c r="T385" s="3">
         <v>22.16</v>
       </c>
-      <c r="U385" s="9">
+      <c r="U385" s="3">
         <v>16.54</v>
       </c>
-      <c r="V385" s="9">
+      <c r="V385" s="3">
         <v>10.47</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A386" s="8" t="s">
+    <row r="386" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A386" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C386" s="9">
+      <c r="C386" s="3">
         <v>123.5</v>
       </c>
-      <c r="D386" s="9">
+      <c r="D386" s="3">
         <v>115.1</v>
       </c>
-      <c r="E386" s="9">
+      <c r="E386" s="3">
         <v>74.819999999999993</v>
       </c>
-      <c r="F386" s="9">
+      <c r="F386" s="3">
         <v>104.9</v>
       </c>
-      <c r="G386" s="9">
+      <c r="G386" s="3">
         <v>96.71</v>
       </c>
-      <c r="H386" s="9">
+      <c r="H386" s="3">
         <v>125.6</v>
       </c>
-      <c r="I386" s="9">
+      <c r="I386" s="3">
         <v>83.88</v>
       </c>
-      <c r="J386" s="9">
+      <c r="J386" s="3">
         <v>94.64</v>
       </c>
-      <c r="K386" s="9">
+      <c r="K386" s="3">
         <v>108.5</v>
       </c>
-      <c r="L386" s="9">
+      <c r="L386" s="3">
         <v>97.48</v>
       </c>
-      <c r="M386" s="9">
+      <c r="M386" s="3">
         <v>106.4</v>
       </c>
-      <c r="N386" s="9">
+      <c r="N386" s="3">
         <v>22.03</v>
       </c>
-      <c r="O386" s="9">
+      <c r="O386" s="3">
         <v>37.75</v>
       </c>
-      <c r="P386" s="9">
+      <c r="P386" s="3">
         <v>89.29</v>
       </c>
-      <c r="Q386" s="9">
+      <c r="Q386" s="3">
         <v>48.45</v>
       </c>
-      <c r="R386" s="9">
+      <c r="R386" s="3">
         <v>1.6339999999999999</v>
       </c>
-      <c r="S386" s="9">
+      <c r="S386" s="3">
         <v>9.109</v>
       </c>
-      <c r="T386" s="9">
+      <c r="T386" s="3">
         <v>7.3739999999999997</v>
       </c>
-      <c r="U386" s="9">
+      <c r="U386" s="3">
         <v>3.988</v>
       </c>
-      <c r="V386" s="9">
+      <c r="V386" s="3">
         <v>2.1859999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A387" s="8" t="s">
+    <row r="387" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A387" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C387" s="9">
+      <c r="C387" s="3">
         <v>97.3</v>
       </c>
-      <c r="D387" s="9">
+      <c r="D387" s="3">
         <v>92.07</v>
       </c>
-      <c r="E387" s="9">
+      <c r="E387" s="3">
         <v>77.25</v>
       </c>
-      <c r="F387" s="9">
+      <c r="F387" s="3">
         <v>91.17</v>
       </c>
-      <c r="G387" s="9">
+      <c r="G387" s="3">
         <v>68.209999999999994</v>
       </c>
-      <c r="H387" s="9">
+      <c r="H387" s="3">
         <v>74.75</v>
       </c>
-      <c r="I387" s="9">
+      <c r="I387" s="3">
         <v>76.430000000000007</v>
       </c>
-      <c r="J387" s="9">
+      <c r="J387" s="3">
         <v>64.209999999999994</v>
       </c>
-      <c r="K387" s="9">
+      <c r="K387" s="3">
         <v>95.48</v>
       </c>
-      <c r="L387" s="9">
+      <c r="L387" s="3">
         <v>98.03</v>
       </c>
-      <c r="M387" s="9">
+      <c r="M387" s="3">
         <v>82.96</v>
       </c>
-      <c r="N387" s="9">
+      <c r="N387" s="3">
         <v>26.26</v>
       </c>
-      <c r="O387" s="9">
+      <c r="O387" s="3">
         <v>34.69</v>
       </c>
-      <c r="P387" s="9">
+      <c r="P387" s="3">
         <v>114.9</v>
       </c>
-      <c r="Q387" s="9">
+      <c r="Q387" s="3">
         <v>43.53</v>
       </c>
-      <c r="R387" s="9">
+      <c r="R387" s="3">
         <v>6.1280000000000001</v>
       </c>
-      <c r="S387" s="9">
+      <c r="S387" s="3">
         <v>10.78</v>
       </c>
-      <c r="T387" s="9">
+      <c r="T387" s="3">
         <v>12.39</v>
       </c>
-      <c r="U387" s="9">
+      <c r="U387" s="3">
         <v>9.0850000000000009</v>
       </c>
-      <c r="V387" s="9">
+      <c r="V387" s="3">
         <v>4.125</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A388" s="8" t="s">
+    <row r="388" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A388" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C388" s="9">
+      <c r="C388" s="3">
         <v>2.1419999999999999</v>
       </c>
-      <c r="D388" s="9">
+      <c r="D388" s="3">
         <v>2.411</v>
       </c>
-      <c r="E388" s="9">
+      <c r="E388" s="3">
         <v>1.2230000000000001</v>
       </c>
-      <c r="F388" s="9">
+      <c r="F388" s="3">
         <v>1</v>
       </c>
-      <c r="G388" s="9">
+      <c r="G388" s="3">
         <v>1.4870000000000001</v>
       </c>
-      <c r="H388" s="9">
+      <c r="H388" s="3">
         <v>9.8610000000000007</v>
       </c>
-      <c r="I388" s="9">
+      <c r="I388" s="3">
         <v>3.1160000000000001</v>
       </c>
-      <c r="J388" s="9">
+      <c r="J388" s="3">
         <v>1.843</v>
       </c>
-      <c r="K388" s="9">
+      <c r="K388" s="3">
         <v>4.6829999999999998</v>
       </c>
-      <c r="L388" s="9">
+      <c r="L388" s="3">
         <v>2.6680000000000001</v>
       </c>
-      <c r="M388" s="9">
+      <c r="M388" s="3">
         <v>3.2829999999999999</v>
       </c>
-      <c r="N388" s="9">
+      <c r="N388" s="3">
         <v>4.8369999999999997</v>
       </c>
-      <c r="O388" s="9">
+      <c r="O388" s="3">
         <v>4.0579999999999998</v>
       </c>
-      <c r="P388" s="9">
+      <c r="P388" s="3">
         <v>56.99</v>
       </c>
-      <c r="Q388" s="9">
+      <c r="Q388" s="3">
         <v>2.7749999999999999</v>
       </c>
-      <c r="R388" s="9">
+      <c r="R388" s="3">
         <v>1</v>
       </c>
-      <c r="S388" s="9">
+      <c r="S388" s="3">
         <v>4.577</v>
       </c>
-      <c r="T388" s="9">
+      <c r="T388" s="3">
         <v>3.7490000000000001</v>
       </c>
-      <c r="U388" s="9">
+      <c r="U388" s="3">
         <v>3.4649999999999999</v>
       </c>
-      <c r="V388" s="9">
+      <c r="V388" s="3">
         <v>3.2970000000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A389" s="10" t="s">
+    <row r="389" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A389" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C389" s="9">
+      <c r="C389" s="3">
         <v>437.4</v>
       </c>
-      <c r="D389" s="9">
+      <c r="D389" s="3">
         <v>394.3</v>
       </c>
-      <c r="E389" s="9">
+      <c r="E389" s="3">
         <v>336.3</v>
       </c>
-      <c r="F389" s="9">
+      <c r="F389" s="3">
         <v>366</v>
       </c>
-      <c r="G389" s="9">
+      <c r="G389" s="3">
         <v>335</v>
       </c>
-      <c r="H389" s="9">
+      <c r="H389" s="3">
         <v>343.6</v>
       </c>
-      <c r="I389" s="9">
+      <c r="I389" s="3">
         <v>328</v>
       </c>
-      <c r="J389" s="9">
+      <c r="J389" s="3">
         <v>350.4</v>
       </c>
-      <c r="K389" s="9">
+      <c r="K389" s="3">
         <v>333.1</v>
       </c>
-      <c r="L389" s="9">
+      <c r="L389" s="3">
         <v>328.3</v>
       </c>
-      <c r="M389" s="9">
+      <c r="M389" s="3">
         <v>342.7</v>
       </c>
-      <c r="N389" s="9">
+      <c r="N389" s="3">
         <v>171.2</v>
       </c>
-      <c r="O389" s="9">
+      <c r="O389" s="3">
         <v>138.5</v>
       </c>
-      <c r="P389" s="9">
+      <c r="P389" s="3">
         <v>412.2</v>
       </c>
-      <c r="Q389" s="9">
+      <c r="Q389" s="3">
         <v>214.3</v>
       </c>
-      <c r="R389" s="9">
+      <c r="R389" s="3">
         <v>42.22</v>
       </c>
-      <c r="S389" s="9">
+      <c r="S389" s="3">
         <v>61.73</v>
       </c>
-      <c r="T389" s="9">
+      <c r="T389" s="3">
         <v>59.2</v>
       </c>
-      <c r="U389" s="9">
+      <c r="U389" s="3">
         <v>48.88</v>
       </c>
-      <c r="V389" s="9">
+      <c r="V389" s="3">
         <v>32.15</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A390" s="10" t="s">
+    <row r="390" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A390" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C390" s="9">
+      <c r="C390" s="3">
         <v>1190</v>
       </c>
-      <c r="D390" s="9">
+      <c r="D390" s="3">
         <v>1062</v>
       </c>
-      <c r="E390" s="9">
+      <c r="E390" s="3">
         <v>853.4</v>
       </c>
-      <c r="F390" s="9">
+      <c r="F390" s="3">
         <v>1171</v>
       </c>
-      <c r="G390" s="9">
+      <c r="G390" s="3">
         <v>785.5</v>
       </c>
-      <c r="H390" s="9">
+      <c r="H390" s="3">
         <v>889.4</v>
       </c>
-      <c r="I390" s="9">
+      <c r="I390" s="3">
         <v>960.9</v>
       </c>
-      <c r="J390" s="9">
+      <c r="J390" s="3">
         <v>865.2</v>
       </c>
-      <c r="K390" s="9">
+      <c r="K390" s="3">
         <v>937.4</v>
       </c>
-      <c r="L390" s="9">
+      <c r="L390" s="3">
         <v>957.2</v>
       </c>
-      <c r="M390" s="9">
+      <c r="M390" s="3">
         <v>846.7</v>
       </c>
-      <c r="N390" s="9">
+      <c r="N390" s="3">
         <v>307.2</v>
       </c>
-      <c r="O390" s="9">
+      <c r="O390" s="3">
         <v>262.5</v>
       </c>
-      <c r="P390" s="9">
+      <c r="P390" s="3">
         <v>870.3</v>
       </c>
-      <c r="Q390" s="9">
+      <c r="Q390" s="3">
         <v>473.3</v>
       </c>
-      <c r="R390" s="9">
+      <c r="R390" s="3">
         <v>143.80000000000001</v>
       </c>
-      <c r="S390" s="9">
+      <c r="S390" s="3">
         <v>105.9</v>
       </c>
-      <c r="T390" s="9">
+      <c r="T390" s="3">
         <v>157.4</v>
       </c>
-      <c r="U390" s="9">
+      <c r="U390" s="3">
         <v>156.4</v>
       </c>
-      <c r="V390" s="9">
+      <c r="V390" s="3">
         <v>76.42</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A391" s="10" t="s">
+    <row r="391" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A391" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C391" s="9">
+      <c r="C391" s="3">
         <v>1289</v>
       </c>
-      <c r="D391" s="9">
+      <c r="D391" s="3">
         <v>1136</v>
       </c>
-      <c r="E391" s="9">
+      <c r="E391" s="3">
         <v>938.7</v>
       </c>
-      <c r="F391" s="9">
+      <c r="F391" s="3">
         <v>1235</v>
       </c>
-      <c r="G391" s="9">
+      <c r="G391" s="3">
         <v>865.3</v>
       </c>
-      <c r="H391" s="9">
+      <c r="H391" s="3">
         <v>921.6</v>
       </c>
-      <c r="I391" s="9">
+      <c r="I391" s="3">
         <v>974</v>
       </c>
-      <c r="J391" s="9">
+      <c r="J391" s="3">
         <v>941.4</v>
       </c>
-      <c r="K391" s="9">
+      <c r="K391" s="3">
         <v>1000</v>
       </c>
-      <c r="L391" s="9">
+      <c r="L391" s="3">
         <v>945.6</v>
       </c>
-      <c r="M391" s="9">
+      <c r="M391" s="3">
         <v>931.6</v>
       </c>
-      <c r="N391" s="9">
+      <c r="N391" s="3">
         <v>334.1</v>
       </c>
-      <c r="O391" s="9">
+      <c r="O391" s="3">
         <v>302.2</v>
       </c>
-      <c r="P391" s="9">
+      <c r="P391" s="3">
         <v>1013</v>
       </c>
-      <c r="Q391" s="9">
+      <c r="Q391" s="3">
         <v>522.4</v>
       </c>
-      <c r="R391" s="9">
+      <c r="R391" s="3">
         <v>147.5</v>
       </c>
-      <c r="S391" s="9">
+      <c r="S391" s="3">
         <v>98.13</v>
       </c>
-      <c r="T391" s="9">
+      <c r="T391" s="3">
         <v>167.1</v>
       </c>
-      <c r="U391" s="9">
+      <c r="U391" s="3">
         <v>188.4</v>
       </c>
-      <c r="V391" s="9">
+      <c r="V391" s="3">
         <v>75.849999999999994</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A392" s="10" t="s">
+    <row r="392" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A392" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C392" s="9">
+      <c r="C392" s="3">
         <v>559.5</v>
       </c>
-      <c r="D392" s="9">
+      <c r="D392" s="3">
         <v>527.29999999999995</v>
       </c>
-      <c r="E392" s="9">
+      <c r="E392" s="3">
         <v>442.5</v>
       </c>
-      <c r="F392" s="9">
+      <c r="F392" s="3">
         <v>632</v>
       </c>
-      <c r="G392" s="9">
+      <c r="G392" s="3">
         <v>403.1</v>
       </c>
-      <c r="H392" s="9">
+      <c r="H392" s="3">
         <v>416.6</v>
       </c>
-      <c r="I392" s="9">
+      <c r="I392" s="3">
         <v>418.2</v>
       </c>
-      <c r="J392" s="9">
+      <c r="J392" s="3">
         <v>514</v>
       </c>
-      <c r="K392" s="9">
+      <c r="K392" s="3">
         <v>589</v>
       </c>
-      <c r="L392" s="9">
+      <c r="L392" s="3">
         <v>620.6</v>
       </c>
-      <c r="M392" s="9">
+      <c r="M392" s="3">
         <v>500.7</v>
       </c>
-      <c r="N392" s="9">
+      <c r="N392" s="3">
         <v>191.9</v>
       </c>
-      <c r="O392" s="9">
+      <c r="O392" s="3">
         <v>141.4</v>
       </c>
-      <c r="P392" s="9">
+      <c r="P392" s="3">
         <v>587.4</v>
       </c>
-      <c r="Q392" s="9">
+      <c r="Q392" s="3">
         <v>208.6</v>
       </c>
-      <c r="R392" s="9">
+      <c r="R392" s="3">
         <v>202.1</v>
       </c>
-      <c r="S392" s="9">
+      <c r="S392" s="3">
         <v>19.5</v>
       </c>
-      <c r="T392" s="9">
+      <c r="T392" s="3">
         <v>194.6</v>
       </c>
-      <c r="U392" s="9">
+      <c r="U392" s="3">
         <v>225.5</v>
       </c>
-      <c r="V392" s="9">
+      <c r="V392" s="3">
         <v>12.42</v>
       </c>
     </row>
-    <row r="393" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A393" s="10" t="s">
+    <row r="393" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A393" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C393" s="9">
+      <c r="C393" s="3">
         <v>239.6</v>
       </c>
-      <c r="D393" s="9">
+      <c r="D393" s="3">
         <v>203.4</v>
       </c>
-      <c r="E393" s="9">
+      <c r="E393" s="3">
         <v>221.8</v>
       </c>
-      <c r="F393" s="9">
+      <c r="F393" s="3">
         <v>216.5</v>
       </c>
-      <c r="G393" s="9">
+      <c r="G393" s="3">
         <v>145.69999999999999</v>
       </c>
-      <c r="H393" s="9">
+      <c r="H393" s="3">
         <v>160.69999999999999</v>
       </c>
-      <c r="I393" s="9">
+      <c r="I393" s="3">
         <v>211.6</v>
       </c>
-      <c r="J393" s="9">
+      <c r="J393" s="3">
         <v>178.7</v>
       </c>
-      <c r="K393" s="9">
+      <c r="K393" s="3">
         <v>189.1</v>
       </c>
-      <c r="L393" s="9">
+      <c r="L393" s="3">
         <v>178.7</v>
       </c>
-      <c r="M393" s="9">
+      <c r="M393" s="3">
         <v>167.8</v>
       </c>
-      <c r="N393" s="9">
+      <c r="N393" s="3">
         <v>62.99</v>
       </c>
-      <c r="O393" s="9">
+      <c r="O393" s="3">
         <v>70.569999999999993</v>
       </c>
-      <c r="P393" s="9">
+      <c r="P393" s="3">
         <v>215.6</v>
       </c>
-      <c r="Q393" s="9">
+      <c r="Q393" s="3">
         <v>76.17</v>
       </c>
-      <c r="R393" s="9">
+      <c r="R393" s="3">
         <v>15.73</v>
       </c>
-      <c r="S393" s="9">
+      <c r="S393" s="3">
         <v>21.53</v>
       </c>
-      <c r="T393" s="9">
+      <c r="T393" s="3">
         <v>21.58</v>
       </c>
-      <c r="U393" s="9">
+      <c r="U393" s="3">
         <v>16.66</v>
       </c>
-      <c r="V393" s="9">
+      <c r="V393" s="3">
         <v>12.99</v>
       </c>
     </row>
-    <row r="394" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A394" s="10" t="s">
+    <row r="394" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A394" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C394" s="9">
+      <c r="C394" s="3">
         <v>312.7</v>
       </c>
-      <c r="D394" s="9">
+      <c r="D394" s="3">
         <v>269.2</v>
       </c>
-      <c r="E394" s="9">
+      <c r="E394" s="3">
         <v>238.3</v>
       </c>
-      <c r="F394" s="9">
+      <c r="F394" s="3">
         <v>239.9</v>
       </c>
-      <c r="G394" s="9">
+      <c r="G394" s="3">
         <v>204.1</v>
       </c>
-      <c r="H394" s="9">
+      <c r="H394" s="3">
         <v>221.7</v>
       </c>
-      <c r="I394" s="9">
+      <c r="I394" s="3">
         <v>212.8</v>
       </c>
-      <c r="J394" s="9">
+      <c r="J394" s="3">
         <v>237.2</v>
       </c>
-      <c r="K394" s="9">
+      <c r="K394" s="3">
         <v>216.1</v>
       </c>
-      <c r="L394" s="9">
+      <c r="L394" s="3">
         <v>191.9</v>
       </c>
-      <c r="M394" s="9">
+      <c r="M394" s="3">
         <v>188.2</v>
       </c>
-      <c r="N394" s="9">
+      <c r="N394" s="3">
         <v>130.19999999999999</v>
       </c>
-      <c r="O394" s="9">
+      <c r="O394" s="3">
         <v>65.75</v>
       </c>
-      <c r="P394" s="9">
+      <c r="P394" s="3">
         <v>226.4</v>
       </c>
-      <c r="Q394" s="9">
+      <c r="Q394" s="3">
         <v>133.69999999999999</v>
       </c>
-      <c r="R394" s="9">
+      <c r="R394" s="3">
         <v>35.31</v>
       </c>
-      <c r="S394" s="9">
+      <c r="S394" s="3">
         <v>29.21</v>
       </c>
-      <c r="T394" s="9">
+      <c r="T394" s="3">
         <v>36.729999999999997</v>
       </c>
-      <c r="U394" s="9">
+      <c r="U394" s="3">
         <v>44.75</v>
       </c>
-      <c r="V394" s="9">
+      <c r="V394" s="3">
         <v>22.82</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A395" s="10" t="s">
+    <row r="395" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A395" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C395" s="9">
+      <c r="C395" s="3">
         <v>354.2</v>
       </c>
-      <c r="D395" s="9">
+      <c r="D395" s="3">
         <v>346.8</v>
       </c>
-      <c r="E395" s="9">
+      <c r="E395" s="3">
         <v>257.5</v>
       </c>
-      <c r="F395" s="9">
+      <c r="F395" s="3">
         <v>359.8</v>
       </c>
-      <c r="G395" s="9">
+      <c r="G395" s="3">
         <v>205.4</v>
       </c>
-      <c r="H395" s="9">
+      <c r="H395" s="3">
         <v>212.6</v>
       </c>
-      <c r="I395" s="9">
+      <c r="I395" s="3">
         <v>221.2</v>
       </c>
-      <c r="J395" s="9">
+      <c r="J395" s="3">
         <v>321.3</v>
       </c>
-      <c r="K395" s="9">
+      <c r="K395" s="3">
         <v>304</v>
       </c>
-      <c r="L395" s="9">
+      <c r="L395" s="3">
         <v>286.10000000000002</v>
       </c>
-      <c r="M395" s="9">
+      <c r="M395" s="3">
         <v>268.5</v>
       </c>
-      <c r="N395" s="9">
+      <c r="N395" s="3">
         <v>121.3</v>
       </c>
-      <c r="O395" s="9">
+      <c r="O395" s="3">
         <v>84.44</v>
       </c>
-      <c r="P395" s="9">
+      <c r="P395" s="3">
         <v>228.4</v>
       </c>
-      <c r="Q395" s="9">
+      <c r="Q395" s="3">
         <v>155.30000000000001</v>
       </c>
-      <c r="R395" s="9">
+      <c r="R395" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="S395" s="9">
+      <c r="S395" s="3">
         <v>22.22</v>
       </c>
-      <c r="T395" s="9">
+      <c r="T395" s="3">
         <v>25.03</v>
       </c>
-      <c r="U395" s="9">
+      <c r="U395" s="3">
         <v>22.12</v>
       </c>
-      <c r="V395" s="9">
+      <c r="V395" s="3">
         <v>12.01</v>
       </c>
     </row>
@@ -28667,1084 +28622,1075 @@
   <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.06640625" style="6"/>
+    <col min="11" max="12" width="12.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="7">
         <v>691.1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>591.20000000000005</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>535.9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>651.4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>453.3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>459.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>681.9</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>517</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>536.20000000000005</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>553.9</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>566.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>234.9</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="7">
         <v>246.5</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <v>683.8</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="7">
         <v>319.10000000000002</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>512</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="7">
         <v>314.8</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="7">
         <v>481.9</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="7">
         <v>642.29999999999995</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="7">
         <v>415.7</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-    </row>
-    <row r="3" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="7">
         <v>424.6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>399.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>363</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>353.7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>276.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>302.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>523</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>371</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <v>358.9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>387.3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>373.3</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="7">
         <v>176.9</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="7">
         <v>185.7</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="7">
         <v>481.5</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="7">
         <v>254.5</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="7">
         <v>453.9</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="7">
         <v>236.2</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="7">
         <v>398.9</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="7">
         <v>491</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="7">
         <v>293.7</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-    </row>
-    <row r="4" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+    </row>
+    <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="7">
         <v>1933</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1652</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>1780</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>3143</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>1590</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>1618</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>2158</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>1500</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>1919</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>1757</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <v>1871</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <v>552.5</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="7">
         <v>462.9</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="7">
         <v>2931</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="7">
         <v>1608</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="7">
         <v>6087</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="7">
         <v>3517</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="7">
         <v>4340</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="7">
         <v>9717</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="7">
         <v>2829</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-    </row>
-    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+    </row>
+    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="7">
         <v>382.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>310.3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>294.89999999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>352.9</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>308.39999999999998</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>300.3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>341.6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>267.39999999999998</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>264.60000000000002</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>246.9</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <v>277.5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="7">
         <v>44.48</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="7">
         <v>55.98</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="7">
         <v>304.8</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="7">
         <v>223.2</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="7">
         <v>467</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="7">
         <v>151.4</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="7">
         <v>435.2</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="7">
         <v>542.29999999999995</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="7">
         <v>582.79999999999995</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-    </row>
-    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+    </row>
+    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="7">
         <v>175.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>167.8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>140.19999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>65.23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>171.7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>170.9</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>197.2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>167.9</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="7">
         <v>152.30000000000001</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>116.6</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="7">
         <v>152.1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="7">
         <v>37.06</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="7">
         <v>64.22</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <v>280.8</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="7">
         <v>207.8</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="7">
         <v>316.2</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="7">
         <v>83.46</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="7">
         <v>301.7</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="7">
         <v>508.9</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="7">
         <v>250.3</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="7">
         <v>867.4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>831.6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>636.9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>513</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>737.3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>758.8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>755.5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>609.6</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="7">
         <v>486.7</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>438.3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="7">
         <v>513.6</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="7">
         <v>150</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="7">
         <v>149.80000000000001</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="7">
         <v>521.5</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="7">
         <v>323.7</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="7">
         <v>760.2</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="7">
         <v>312.3</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="7">
         <v>728.6</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="7">
         <v>882</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="7">
         <v>1035</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+    </row>
+    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="7">
         <v>289.7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>265.39999999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>241</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>232.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <v>270.10000000000002</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <v>258.60000000000002</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>349.2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>248.2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="7">
         <v>243.9</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="7">
         <v>219.4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="7">
         <v>256.89999999999998</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="7">
         <v>58.88</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="7">
         <v>74.81</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <v>352.2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="7">
         <v>223</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="7">
         <v>361.8</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="7">
         <v>231.5</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="7">
         <v>355.2</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="7">
         <v>462.8</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="7">
         <v>295.60000000000002</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="2" t="s">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+    </row>
+    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="7">
         <v>401.1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>360.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>341.5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <v>390.9</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <v>315</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>348.4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>526.29999999999995</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>347.4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="7">
         <v>350</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="7">
         <v>340.5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="7">
         <v>372.6</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="7">
         <v>79.33</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="7">
         <v>97.36</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="7">
         <v>672.3</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="7">
         <v>366.9</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="7">
         <v>581</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="7">
         <v>483.1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="7">
         <v>554.4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="7">
         <v>591.20000000000005</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="7">
         <v>343</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="2" t="s">
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="7">
         <v>989.5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>923.9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>944.2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>824.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>901.4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <v>929.9</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>1235</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="7">
         <v>893.6</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="7">
         <v>879.9</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="7">
         <v>789.9</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="7">
         <v>920.9</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>323</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="7">
         <v>364</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <v>1523</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="7">
         <v>760.3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="7">
         <v>1234</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="7">
         <v>623</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="7">
         <v>1154</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="7">
         <v>1912</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="7">
         <v>981.3</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A11" s="2" t="s">
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="7">
         <v>234</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>216.2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>198.7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>171.9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
         <v>172.3</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="7">
         <v>180.2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <v>314.39999999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="7">
         <v>204.5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="7">
         <v>173.9</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="7">
         <v>169.6</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="7">
         <v>188</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="7">
         <v>39.450000000000003</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="7">
         <v>73.260000000000005</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="7">
         <v>370.4</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="7">
         <v>138.30000000000001</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>283.39999999999998</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="7">
         <v>152.80000000000001</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="7">
         <v>284.89999999999998</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="7">
         <v>396.1</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="7">
         <v>213.6</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="7">
         <v>681.8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>640.4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>572.1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>701.8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <v>564.5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>606.79999999999995</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>816.3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="7">
         <v>571.20000000000005</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="7">
         <v>540</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="7">
         <v>599.70000000000005</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="7">
         <v>618.70000000000005</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="7">
         <v>64.989999999999995</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="7">
         <v>98.89</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="7">
         <v>949.9</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="7">
         <v>463.4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="7">
         <v>1045</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="7">
         <v>549.70000000000005</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="7">
         <v>855.4</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="7">
         <v>1275</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="7">
         <v>741.2</v>
       </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
